--- a/manual/output_1156_chunk_1.xlsx
+++ b/manual/output_1156_chunk_1.xlsx
@@ -601,13 +601,13 @@
     <t>كاتشب هاينز اسكويزى دوى باك - 125 جم</t>
   </si>
   <si>
+    <t>كلوروكس الوان باودر جديد 5 جنيه - 30 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بيبى جوى مضغوطة وسط مقاس 3 - 58 حفاضة</t>
+  </si>
+  <si>
     <t>البوادي حلاوه 4200 جم</t>
-  </si>
-  <si>
-    <t>كلوروكس الوان باودر جديد 5 جنيه - 30 جم</t>
-  </si>
-  <si>
-    <t>حفاضات بيبى جوى مضغوطة وسط مقاس 3 - 58 حفاضة</t>
   </si>
   <si>
     <t>سندة زيت خليط - 900 مل</t>
@@ -8434,7 +8434,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>312.75</v>
+        <v>316</v>
       </c>
       <c r="E4" t="s">
         <v>2661</v>
@@ -8451,7 +8451,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>193</v>
+        <v>193.75</v>
       </c>
       <c r="E5" t="s">
         <v>2661</v>
@@ -8672,7 +8672,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>188</v>
+        <v>188.25</v>
       </c>
       <c r="E18" t="s">
         <v>2661</v>
@@ -8706,7 +8706,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>1147</v>
+        <v>1172.25</v>
       </c>
       <c r="E20" t="s">
         <v>2661</v>
@@ -8774,7 +8774,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>188</v>
+        <v>188.25</v>
       </c>
       <c r="E24" t="s">
         <v>2661</v>
@@ -8876,7 +8876,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>187.25</v>
+        <v>187.5</v>
       </c>
       <c r="E30" t="s">
         <v>2661</v>
@@ -8893,7 +8893,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>314.25</v>
+        <v>314.5</v>
       </c>
       <c r="E31" t="s">
         <v>2661</v>
@@ -9335,7 +9335,7 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>254.75</v>
+        <v>254.25</v>
       </c>
       <c r="E57" t="s">
         <v>2661</v>
@@ -9403,7 +9403,7 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>314.25</v>
+        <v>314.5</v>
       </c>
       <c r="E61" t="s">
         <v>2661</v>
@@ -9488,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>766.25</v>
+        <v>766.5</v>
       </c>
       <c r="E66" t="s">
         <v>2661</v>
@@ -9862,7 +9862,7 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>314.25</v>
+        <v>314.5</v>
       </c>
       <c r="E88" t="s">
         <v>2661</v>
@@ -10049,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="D99">
-        <v>312.75</v>
+        <v>316</v>
       </c>
       <c r="E99" t="s">
         <v>2661</v>
@@ -10083,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>314.25</v>
+        <v>314.5</v>
       </c>
       <c r="E101" t="s">
         <v>2661</v>
@@ -10338,7 +10338,7 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>832</v>
+        <v>832.25</v>
       </c>
       <c r="E116" t="s">
         <v>2661</v>
@@ -10457,7 +10457,7 @@
         <v>2</v>
       </c>
       <c r="D123">
-        <v>307</v>
+        <v>306.75</v>
       </c>
       <c r="E123" t="s">
         <v>2661</v>
@@ -10933,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>339.75</v>
+        <v>339.5</v>
       </c>
       <c r="E151" t="s">
         <v>2661</v>
@@ -11664,7 +11664,7 @@
         <v>2</v>
       </c>
       <c r="D194">
-        <v>312.75</v>
+        <v>316</v>
       </c>
       <c r="E194" t="s">
         <v>2661</v>
@@ -11732,7 +11732,7 @@
         <v>2</v>
       </c>
       <c r="D198">
-        <v>307</v>
+        <v>306.75</v>
       </c>
       <c r="E198" t="s">
         <v>2661</v>
@@ -11817,7 +11817,7 @@
         <v>2</v>
       </c>
       <c r="D203">
-        <v>107.5</v>
+        <v>107.25</v>
       </c>
       <c r="E203" t="s">
         <v>2661</v>
@@ -11970,7 +11970,7 @@
         <v>2</v>
       </c>
       <c r="D212">
-        <v>1195</v>
+        <v>1200.5</v>
       </c>
       <c r="E212" t="s">
         <v>2661</v>
@@ -12055,7 +12055,7 @@
         <v>2</v>
       </c>
       <c r="D217">
-        <v>307</v>
+        <v>306.75</v>
       </c>
       <c r="E217" t="s">
         <v>2661</v>
@@ -12072,7 +12072,7 @@
         <v>2</v>
       </c>
       <c r="D218">
-        <v>318.5</v>
+        <v>331.5</v>
       </c>
       <c r="E218" t="s">
         <v>2661</v>
@@ -12106,7 +12106,7 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>712.5</v>
+        <v>711.5</v>
       </c>
       <c r="E220" t="s">
         <v>2661</v>
@@ -12556,50 +12556,50 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247">
-        <v>8106</v>
+        <v>7573</v>
       </c>
       <c r="B247" t="s">
         <v>195</v>
       </c>
       <c r="C247">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>415.5</v>
+        <v>77.5</v>
       </c>
       <c r="E247" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248">
-        <v>8106</v>
+        <v>3575</v>
       </c>
       <c r="B248" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D248">
-        <v>831</v>
+        <v>283.25</v>
       </c>
       <c r="E248" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249">
-        <v>7573</v>
+        <v>3575</v>
       </c>
       <c r="B249" t="s">
         <v>196</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D249">
-        <v>77.5</v>
+        <v>849.75</v>
       </c>
       <c r="E249" t="s">
         <v>2661</v>
@@ -12607,16 +12607,16 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250">
-        <v>3575</v>
+        <v>8106</v>
       </c>
       <c r="B250" t="s">
         <v>197</v>
       </c>
       <c r="C250">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D250">
-        <v>283.25</v>
+        <v>415.5</v>
       </c>
       <c r="E250" t="s">
         <v>2662</v>
@@ -12624,16 +12624,16 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251">
-        <v>3575</v>
+        <v>8106</v>
       </c>
       <c r="B251" t="s">
         <v>197</v>
       </c>
       <c r="C251">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>849.75</v>
+        <v>831</v>
       </c>
       <c r="E251" t="s">
         <v>2661</v>
@@ -12803,7 +12803,7 @@
         <v>2</v>
       </c>
       <c r="D261">
-        <v>98</v>
+        <v>97.75</v>
       </c>
       <c r="E261" t="s">
         <v>2661</v>
@@ -13143,7 +13143,7 @@
         <v>2</v>
       </c>
       <c r="D281">
-        <v>262</v>
+        <v>261.5</v>
       </c>
       <c r="E281" t="s">
         <v>2661</v>
@@ -13551,7 +13551,7 @@
         <v>2</v>
       </c>
       <c r="D305">
-        <v>150.25</v>
+        <v>150.5</v>
       </c>
       <c r="E305" t="s">
         <v>2661</v>
@@ -14248,7 +14248,7 @@
         <v>1</v>
       </c>
       <c r="D346">
-        <v>876.5</v>
+        <v>876</v>
       </c>
       <c r="E346" t="s">
         <v>2661</v>
@@ -14571,7 +14571,7 @@
         <v>2</v>
       </c>
       <c r="D365">
-        <v>111</v>
+        <v>110.75</v>
       </c>
       <c r="E365" t="s">
         <v>2661</v>
@@ -14724,7 +14724,7 @@
         <v>1</v>
       </c>
       <c r="D374">
-        <v>618.25</v>
+        <v>618</v>
       </c>
       <c r="E374" t="s">
         <v>2661</v>
@@ -14809,7 +14809,7 @@
         <v>1</v>
       </c>
       <c r="D379">
-        <v>284.25</v>
+        <v>284</v>
       </c>
       <c r="E379" t="s">
         <v>2661</v>
@@ -15353,7 +15353,7 @@
         <v>2</v>
       </c>
       <c r="D411">
-        <v>1202.75</v>
+        <v>1206.75</v>
       </c>
       <c r="E411" t="s">
         <v>2661</v>
@@ -15727,7 +15727,7 @@
         <v>2</v>
       </c>
       <c r="D433">
-        <v>307</v>
+        <v>306.75</v>
       </c>
       <c r="E433" t="s">
         <v>2661</v>
@@ -16475,7 +16475,7 @@
         <v>2</v>
       </c>
       <c r="D477">
-        <v>262</v>
+        <v>261.5</v>
       </c>
       <c r="E477" t="s">
         <v>2661</v>
@@ -16951,7 +16951,7 @@
         <v>2</v>
       </c>
       <c r="D505">
-        <v>263.5</v>
+        <v>263</v>
       </c>
       <c r="E505" t="s">
         <v>2661</v>
@@ -17053,7 +17053,7 @@
         <v>2</v>
       </c>
       <c r="D511">
-        <v>150.25</v>
+        <v>150.5</v>
       </c>
       <c r="E511" t="s">
         <v>2661</v>
@@ -17138,7 +17138,7 @@
         <v>2</v>
       </c>
       <c r="D516">
-        <v>262</v>
+        <v>261.5</v>
       </c>
       <c r="E516" t="s">
         <v>2661</v>
@@ -17784,7 +17784,7 @@
         <v>2</v>
       </c>
       <c r="D554">
-        <v>263.5</v>
+        <v>263</v>
       </c>
       <c r="E554" t="s">
         <v>2661</v>
@@ -18107,7 +18107,7 @@
         <v>1</v>
       </c>
       <c r="D573">
-        <v>876.5</v>
+        <v>876</v>
       </c>
       <c r="E573" t="s">
         <v>2661</v>
@@ -18243,7 +18243,7 @@
         <v>10</v>
       </c>
       <c r="D581">
-        <v>24.25</v>
+        <v>24</v>
       </c>
       <c r="E581" t="s">
         <v>2662</v>
@@ -18260,7 +18260,7 @@
         <v>1</v>
       </c>
       <c r="D582">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E582" t="s">
         <v>2661</v>
@@ -18447,7 +18447,7 @@
         <v>2</v>
       </c>
       <c r="D593">
-        <v>802.25</v>
+        <v>802</v>
       </c>
       <c r="E593" t="s">
         <v>2661</v>
@@ -18719,7 +18719,7 @@
         <v>1</v>
       </c>
       <c r="D609">
-        <v>876.5</v>
+        <v>876</v>
       </c>
       <c r="E609" t="s">
         <v>2661</v>
@@ -18889,7 +18889,7 @@
         <v>10</v>
       </c>
       <c r="D619">
-        <v>16.25</v>
+        <v>16</v>
       </c>
       <c r="E619" t="s">
         <v>2662</v>
@@ -18906,7 +18906,7 @@
         <v>1</v>
       </c>
       <c r="D620">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E620" t="s">
         <v>2661</v>
@@ -19127,7 +19127,7 @@
         <v>26</v>
       </c>
       <c r="D633">
-        <v>210.5</v>
+        <v>210.75</v>
       </c>
       <c r="E633" t="s">
         <v>2661</v>
@@ -19416,7 +19416,7 @@
         <v>1</v>
       </c>
       <c r="D650">
-        <v>876.5</v>
+        <v>876</v>
       </c>
       <c r="E650" t="s">
         <v>2661</v>
@@ -20997,7 +20997,7 @@
         <v>1</v>
       </c>
       <c r="D743">
-        <v>275.25</v>
+        <v>275</v>
       </c>
       <c r="E743" t="s">
         <v>2661</v>
@@ -21439,7 +21439,7 @@
         <v>2</v>
       </c>
       <c r="D769">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="E769" t="s">
         <v>2662</v>
@@ -21456,7 +21456,7 @@
         <v>1</v>
       </c>
       <c r="D770">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E770" t="s">
         <v>2661</v>
@@ -21490,7 +21490,7 @@
         <v>2</v>
       </c>
       <c r="D772">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="E772" t="s">
         <v>2662</v>
@@ -21507,7 +21507,7 @@
         <v>1</v>
       </c>
       <c r="D773">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E773" t="s">
         <v>2661</v>
@@ -21745,7 +21745,7 @@
         <v>1</v>
       </c>
       <c r="D787">
-        <v>275.25</v>
+        <v>275</v>
       </c>
       <c r="E787" t="s">
         <v>2661</v>
@@ -22187,7 +22187,7 @@
         <v>1</v>
       </c>
       <c r="D813">
-        <v>195.25</v>
+        <v>195</v>
       </c>
       <c r="E813" t="s">
         <v>2661</v>
@@ -22544,7 +22544,7 @@
         <v>3</v>
       </c>
       <c r="D834">
-        <v>16.25</v>
+        <v>16.5</v>
       </c>
       <c r="E834" t="s">
         <v>2662</v>
@@ -22561,7 +22561,7 @@
         <v>1</v>
       </c>
       <c r="D835">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E835" t="s">
         <v>2661</v>
@@ -24006,7 +24006,7 @@
         <v>2</v>
       </c>
       <c r="D920">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="E920" t="s">
         <v>2662</v>
@@ -24023,7 +24023,7 @@
         <v>1</v>
       </c>
       <c r="D921">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E921" t="s">
         <v>2661</v>
@@ -24482,7 +24482,7 @@
         <v>1</v>
       </c>
       <c r="D948">
-        <v>695</v>
+        <v>694.75</v>
       </c>
       <c r="E948" t="s">
         <v>2661</v>
@@ -24499,7 +24499,7 @@
         <v>1</v>
       </c>
       <c r="D949">
-        <v>279</v>
+        <v>279.5</v>
       </c>
       <c r="E949" t="s">
         <v>2661</v>
@@ -24516,7 +24516,7 @@
         <v>1</v>
       </c>
       <c r="D950">
-        <v>284.25</v>
+        <v>284</v>
       </c>
       <c r="E950" t="s">
         <v>2661</v>
@@ -24737,7 +24737,7 @@
         <v>1</v>
       </c>
       <c r="D963">
-        <v>192.5</v>
+        <v>192.75</v>
       </c>
       <c r="E963" t="s">
         <v>2661</v>
@@ -24941,7 +24941,7 @@
         <v>1</v>
       </c>
       <c r="D975">
-        <v>605</v>
+        <v>606.75</v>
       </c>
       <c r="E975" t="s">
         <v>2662</v>
@@ -24958,7 +24958,7 @@
         <v>2</v>
       </c>
       <c r="D976">
-        <v>1210</v>
+        <v>1213.5</v>
       </c>
       <c r="E976" t="s">
         <v>2661</v>
@@ -25026,7 +25026,7 @@
         <v>1</v>
       </c>
       <c r="D980">
-        <v>612.75</v>
+        <v>616.25</v>
       </c>
       <c r="E980" t="s">
         <v>2661</v>
@@ -25264,7 +25264,7 @@
         <v>1</v>
       </c>
       <c r="D994">
-        <v>122.5</v>
+        <v>122.25</v>
       </c>
       <c r="E994" t="s">
         <v>2661</v>
@@ -27151,7 +27151,7 @@
         <v>1</v>
       </c>
       <c r="D1105">
-        <v>178.25</v>
+        <v>177.75</v>
       </c>
       <c r="E1105" t="s">
         <v>2661</v>
@@ -27423,7 +27423,7 @@
         <v>1</v>
       </c>
       <c r="D1121">
-        <v>168.25</v>
+        <v>168.75</v>
       </c>
       <c r="E1121" t="s">
         <v>2661</v>
@@ -27729,7 +27729,7 @@
         <v>1</v>
       </c>
       <c r="D1139">
-        <v>275.25</v>
+        <v>275</v>
       </c>
       <c r="E1139" t="s">
         <v>2661</v>
@@ -28120,7 +28120,7 @@
         <v>1</v>
       </c>
       <c r="D1162">
-        <v>399</v>
+        <v>399.5</v>
       </c>
       <c r="E1162" t="s">
         <v>2661</v>
@@ -28341,7 +28341,7 @@
         <v>1</v>
       </c>
       <c r="D1175">
-        <v>386.25</v>
+        <v>386</v>
       </c>
       <c r="E1175" t="s">
         <v>2661</v>
@@ -30143,7 +30143,7 @@
         <v>2</v>
       </c>
       <c r="D1281">
-        <v>315.25</v>
+        <v>324</v>
       </c>
       <c r="E1281" t="s">
         <v>2661</v>
@@ -30194,7 +30194,7 @@
         <v>25</v>
       </c>
       <c r="D1284">
-        <v>152.75</v>
+        <v>153</v>
       </c>
       <c r="E1284" t="s">
         <v>2662</v>
@@ -30211,7 +30211,7 @@
         <v>29</v>
       </c>
       <c r="D1285">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E1285" t="s">
         <v>2661</v>
@@ -30381,7 +30381,7 @@
         <v>7</v>
       </c>
       <c r="D1295">
-        <v>137.5</v>
+        <v>138.75</v>
       </c>
       <c r="E1295" t="s">
         <v>2662</v>
@@ -30398,7 +30398,7 @@
         <v>1</v>
       </c>
       <c r="D1296">
-        <v>2750</v>
+        <v>2775</v>
       </c>
       <c r="E1296" t="s">
         <v>2661</v>
@@ -31877,7 +31877,7 @@
         <v>10</v>
       </c>
       <c r="D1383">
-        <v>16.25</v>
+        <v>16</v>
       </c>
       <c r="E1383" t="s">
         <v>2662</v>
@@ -31894,7 +31894,7 @@
         <v>1</v>
       </c>
       <c r="D1384">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E1384" t="s">
         <v>2661</v>
@@ -31945,7 +31945,7 @@
         <v>10</v>
       </c>
       <c r="D1387">
-        <v>39.75</v>
+        <v>39.5</v>
       </c>
       <c r="E1387" t="s">
         <v>2662</v>
@@ -31962,7 +31962,7 @@
         <v>1</v>
       </c>
       <c r="D1388">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E1388" t="s">
         <v>2661</v>
@@ -33917,7 +33917,7 @@
         <v>7</v>
       </c>
       <c r="D1503">
-        <v>104</v>
+        <v>104.25</v>
       </c>
       <c r="E1503" t="s">
         <v>2662</v>
@@ -33934,7 +33934,7 @@
         <v>1</v>
       </c>
       <c r="D1504">
-        <v>2080</v>
+        <v>2085</v>
       </c>
       <c r="E1504" t="s">
         <v>2661</v>
@@ -33951,7 +33951,7 @@
         <v>7</v>
       </c>
       <c r="D1505">
-        <v>104</v>
+        <v>104.25</v>
       </c>
       <c r="E1505" t="s">
         <v>2662</v>
@@ -33968,7 +33968,7 @@
         <v>1</v>
       </c>
       <c r="D1506">
-        <v>2080</v>
+        <v>2085</v>
       </c>
       <c r="E1506" t="s">
         <v>2661</v>
@@ -36161,7 +36161,7 @@
         <v>23</v>
       </c>
       <c r="D1635">
-        <v>145.75</v>
+        <v>148.25</v>
       </c>
       <c r="E1635" t="s">
         <v>2662</v>
@@ -36178,7 +36178,7 @@
         <v>2</v>
       </c>
       <c r="D1636">
-        <v>874.5</v>
+        <v>889.5</v>
       </c>
       <c r="E1636" t="s">
         <v>2661</v>
@@ -36195,7 +36195,7 @@
         <v>1</v>
       </c>
       <c r="D1637">
-        <v>3498</v>
+        <v>3558</v>
       </c>
       <c r="E1637" t="s">
         <v>2661</v>
@@ -36212,7 +36212,7 @@
         <v>3</v>
       </c>
       <c r="D1638">
-        <v>29.75</v>
+        <v>29.5</v>
       </c>
       <c r="E1638" t="s">
         <v>2662</v>
@@ -36229,7 +36229,7 @@
         <v>1</v>
       </c>
       <c r="D1639">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="E1639" t="s">
         <v>2661</v>
@@ -36246,7 +36246,7 @@
         <v>3</v>
       </c>
       <c r="D1640">
-        <v>139</v>
+        <v>138.75</v>
       </c>
       <c r="E1640" t="s">
         <v>2662</v>
@@ -36263,7 +36263,7 @@
         <v>1</v>
       </c>
       <c r="D1641">
-        <v>834</v>
+        <v>832.5</v>
       </c>
       <c r="E1641" t="s">
         <v>2661</v>
@@ -40955,7 +40955,7 @@
         <v>1</v>
       </c>
       <c r="D1917">
-        <v>727</v>
+        <v>726.75</v>
       </c>
       <c r="E1917" t="s">
         <v>2661</v>
@@ -40972,7 +40972,7 @@
         <v>1</v>
       </c>
       <c r="D1918">
-        <v>741</v>
+        <v>740.25</v>
       </c>
       <c r="E1918" t="s">
         <v>2661</v>
@@ -41567,7 +41567,7 @@
         <v>2</v>
       </c>
       <c r="D1953">
-        <v>318.5</v>
+        <v>331.5</v>
       </c>
       <c r="E1953" t="s">
         <v>2661</v>
@@ -42264,7 +42264,7 @@
         <v>1</v>
       </c>
       <c r="D1994">
-        <v>785.5</v>
+        <v>787.25</v>
       </c>
       <c r="E1994" t="s">
         <v>2661</v>
@@ -43284,7 +43284,7 @@
         <v>1</v>
       </c>
       <c r="D2054">
-        <v>606.25</v>
+        <v>605.75</v>
       </c>
       <c r="E2054" t="s">
         <v>2661</v>
@@ -43862,7 +43862,7 @@
         <v>1</v>
       </c>
       <c r="D2088">
-        <v>949.25</v>
+        <v>948.5</v>
       </c>
       <c r="E2088" t="s">
         <v>2661</v>
@@ -43879,7 +43879,7 @@
         <v>1</v>
       </c>
       <c r="D2089">
-        <v>961</v>
+        <v>960.75</v>
       </c>
       <c r="E2089" t="s">
         <v>2661</v>
@@ -47551,7 +47551,7 @@
         <v>1</v>
       </c>
       <c r="D2305">
-        <v>732.75</v>
+        <v>734.75</v>
       </c>
       <c r="E2305" t="s">
         <v>2661</v>
@@ -50339,7 +50339,7 @@
         <v>1</v>
       </c>
       <c r="D2469">
-        <v>386.25</v>
+        <v>386</v>
       </c>
       <c r="E2469" t="s">
         <v>2661</v>
@@ -51410,7 +51410,7 @@
         <v>2</v>
       </c>
       <c r="D2532">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E2532" t="s">
         <v>2662</v>
@@ -51427,7 +51427,7 @@
         <v>1</v>
       </c>
       <c r="D2533">
-        <v>1764</v>
+        <v>1848</v>
       </c>
       <c r="E2533" t="s">
         <v>2661</v>
@@ -61287,7 +61287,7 @@
         <v>2</v>
       </c>
       <c r="D3113">
-        <v>159.2815991959917</v>
+        <v>159.3515006758077</v>
       </c>
       <c r="E3113" t="s">
         <v>2661</v>
@@ -61304,7 +61304,7 @@
         <v>2</v>
       </c>
       <c r="D3114">
-        <v>159.2740024641394</v>
+        <v>159.3438972749284</v>
       </c>
       <c r="E3114" t="s">
         <v>2661</v>
@@ -61338,7 +61338,7 @@
         <v>2</v>
       </c>
       <c r="D3116">
-        <v>159.3073708804661</v>
+        <v>159.3772949871273</v>
       </c>
       <c r="E3116" t="s">
         <v>2661</v>
@@ -61355,7 +61355,7 @@
         <v>2</v>
       </c>
       <c r="D3117">
-        <v>159.1939324827842</v>
+        <v>159.2365817466631</v>
       </c>
       <c r="E3117" t="s">
         <v>2661</v>
@@ -63174,7 +63174,7 @@
         <v>1</v>
       </c>
       <c r="D3224">
-        <v>753.75</v>
+        <v>753.5</v>
       </c>
       <c r="E3224" t="s">
         <v>2661</v>
@@ -63191,7 +63191,7 @@
         <v>1</v>
       </c>
       <c r="D3225">
-        <v>975.25</v>
+        <v>974.75</v>
       </c>
       <c r="E3225" t="s">
         <v>2661</v>
@@ -65656,7 +65656,7 @@
         <v>3</v>
       </c>
       <c r="D3370">
-        <v>139</v>
+        <v>138.75</v>
       </c>
       <c r="E3370" t="s">
         <v>2662</v>
@@ -65673,7 +65673,7 @@
         <v>1</v>
       </c>
       <c r="D3371">
-        <v>834</v>
+        <v>832.5</v>
       </c>
       <c r="E3371" t="s">
         <v>2661</v>
@@ -74357,7 +74357,7 @@
         <v>2584</v>
       </c>
       <c r="C3882">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3882">
         <v>23.5</v>
@@ -74374,7 +74374,7 @@
         <v>2584</v>
       </c>
       <c r="C3883">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3883">
         <v>23.5</v>

--- a/manual/output_1156_chunk_1.xlsx
+++ b/manual/output_1156_chunk_1.xlsx
@@ -82,12 +82,12 @@
     <t>ماكسى كولا - 1 لتر</t>
   </si>
   <si>
+    <t>سوفى ماكسى سميكة طويل جدا بالمسك عرض خاص - 14 فوطة</t>
+  </si>
+  <si>
     <t>ريد بل - 250 مل</t>
   </si>
   <si>
-    <t>سوفى ماكسى سميكة طويل جدا بالمسك عرض خاص - 14 فوطة</t>
-  </si>
-  <si>
     <t>عصير جهينة مانجو - 235 مل</t>
   </si>
   <si>
@@ -118,18 +118,18 @@
     <t>جبنة عبور لاند فيتا بيضاء - 250 جم</t>
   </si>
   <si>
+    <t>عصير جهينة تفاح - 1 لتر</t>
+  </si>
+  <si>
+    <t>نسكافيه كلاسيك - 1.8 جم</t>
+  </si>
+  <si>
+    <t>عصير جهينة مانجو - 1 لتر</t>
+  </si>
+  <si>
     <t>بيبسى - 2.43 لتر</t>
   </si>
   <si>
-    <t>عصير جهينة تفاح - 1 لتر</t>
-  </si>
-  <si>
-    <t>نسكافيه كلاسيك - 1.8 جم</t>
-  </si>
-  <si>
-    <t>عصير جهينة مانجو - 1 لتر</t>
-  </si>
-  <si>
     <t>لبن جهينة كامل الدسم - 1 لتر</t>
   </si>
   <si>
@@ -145,45 +145,48 @@
     <t>عصير بيتى مانجو - 1 لتر</t>
   </si>
   <si>
+    <t>اندومى سوبر مى خضار جامبو عرض 44 كيس - 100 جم</t>
+  </si>
+  <si>
+    <t>حفاضات فاين بيبى كبير مقاس 5 دبل لوك - 76 حفاضة</t>
+  </si>
+  <si>
+    <t>ماكسي ليمون نعناع - 1 لتر</t>
+  </si>
+  <si>
+    <t>شاى ليبتون ناعم - 40 جم</t>
+  </si>
+  <si>
+    <t>تويست مشروب طاقة -اوريجنال 250 مل</t>
+  </si>
+  <si>
     <t>حفاضات جود كير مقاس 3 - 40 حفاضة</t>
   </si>
   <si>
-    <t>اندومى سوبر مى خضار جامبو عرض 44 كيس - 100 جم</t>
-  </si>
-  <si>
-    <t>حفاضات فاين بيبى كبير مقاس 5 دبل لوك - 76 حفاضة</t>
-  </si>
-  <si>
-    <t>ماكسي ليمون نعناع - 1 لتر</t>
-  </si>
-  <si>
-    <t>شاى ليبتون ناعم - 40 جم</t>
-  </si>
-  <si>
     <t>كوكاكولا اكشن - 300 مل</t>
   </si>
   <si>
-    <t>تويست مشروب طاقة -اوريجنال 250 مل</t>
-  </si>
-  <si>
     <t>ارز حبوبة رفيع - 1 كجم</t>
   </si>
   <si>
+    <t>عصير بيتى كوكتيل - 1 لتر</t>
+  </si>
+  <si>
     <t>شويبس رمان - 1.75 لتر</t>
   </si>
   <si>
     <t>عصير بست كوكتيل كيس - 190 مل</t>
   </si>
   <si>
-    <t>عصير بيتى كوكتيل - 1 لتر</t>
-  </si>
-  <si>
     <t>حفاضات بى بم ميجا مقاس 4 - 80 حفاضة</t>
   </si>
   <si>
     <t>بيبسى تربو - 390 مل</t>
   </si>
   <si>
+    <t>مناديل بابيا سحب 4 طبقة - 500 منديل</t>
+  </si>
+  <si>
     <t>عصير بست تفاح كيس - 190 مل</t>
   </si>
   <si>
@@ -208,9 +211,6 @@
     <t>صلصة هاينز - 360 جم</t>
   </si>
   <si>
-    <t>مناديل بابيا سحب 4 طبقة - 500 منديل</t>
-  </si>
-  <si>
     <t>جبنة عبور لاند فيتا بيضاء - 125 جم</t>
   </si>
   <si>
@@ -247,15 +247,15 @@
     <t>كلوركس الوان ظرف - 210 جم</t>
   </si>
   <si>
+    <t>عصير جهينة برتقال - 1 لتر</t>
+  </si>
+  <si>
+    <t>مناديل بابيا سحب بريميوم 3 طبقة عرض خاص - 500 منديل</t>
+  </si>
+  <si>
     <t>اوكسي يدوي 32 كيس - 50 جم</t>
   </si>
   <si>
-    <t>عصير جهينة برتقال - 1 لتر</t>
-  </si>
-  <si>
-    <t>مناديل بابيا سحب بريميوم 3 طبقة عرض خاص - 500 منديل</t>
-  </si>
-  <si>
     <t>ماكسى برتقال - 400 مل</t>
   </si>
   <si>
@@ -364,24 +364,24 @@
     <t>كوفى بريك 2*1 - 11 جم</t>
   </si>
   <si>
+    <t>مرقة دجاج كنور فاين فودز شريط - 8 جم</t>
+  </si>
+  <si>
+    <t>صلصة هارفست - 320 جم</t>
+  </si>
+  <si>
+    <t>صابون ريفولى - 110 جم</t>
+  </si>
+  <si>
+    <t>بيكينج بودر كوكس - 16 جم</t>
+  </si>
+  <si>
+    <t>شامبو سباركل مشكل 30جنية كميه أكبر - 40 شريط</t>
+  </si>
+  <si>
     <t>عصير بيتى اناناس - 235 مل</t>
   </si>
   <si>
-    <t>مرقة دجاج كنور فاين فودز شريط - 8 جم</t>
-  </si>
-  <si>
-    <t>صلصة هارفست - 320 جم</t>
-  </si>
-  <si>
-    <t>صابون ريفولى - 110 جم</t>
-  </si>
-  <si>
-    <t>بيكينج بودر كوكس - 16 جم</t>
-  </si>
-  <si>
-    <t>شامبو سباركل مشكل 30جنية كميه أكبر - 40 شريط</t>
-  </si>
-  <si>
     <t>ارز الساعة - 1 كجم</t>
   </si>
   <si>
@@ -802,6 +802,9 @@
     <t>كونري كورندبيف - 340 جم</t>
   </si>
   <si>
+    <t>ماندولين ويفر كريمة الكاكاو ب 5ج - 16 جم</t>
+  </si>
+  <si>
     <t>كاتشب هاينز - 6 جرام</t>
   </si>
   <si>
@@ -811,39 +814,36 @@
     <t>اوكسى يدوى نسيم الشرق - 250 جم</t>
   </si>
   <si>
+    <t>مولفيكس بانتس مقاس 4 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>بن ابو عوف سادة فاتح - 50 جم</t>
+  </si>
+  <si>
+    <t>زيت قلية خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>بطارية ريموت افيريدى ازرق - 20 حجر</t>
+  </si>
+  <si>
+    <t>حفاضات بيبى جوى كلوت مضغوط جامبو مقاس 6 - 46 حفاضة</t>
+  </si>
+  <si>
+    <t>فيبا سائل أطباق ليمون أصفر- 4 كجم</t>
+  </si>
+  <si>
+    <t>كنور فاين فودز مرقة دجاج عرض خاص - 12 مكعب 108 جرام</t>
+  </si>
+  <si>
+    <t>ستينج فراولة مينى تربو - 250 مل</t>
+  </si>
+  <si>
+    <t>ماندولين ويفر جديد 10 جنيه  - 33 جم</t>
+  </si>
+  <si>
     <t>شورتى بسكويت - 10 جنية</t>
   </si>
   <si>
-    <t>مولفيكس بانتس مقاس 4 - 56 حفاضة</t>
-  </si>
-  <si>
-    <t>ماندولين ويفر كريمة الكاكاو ب 5ج - 16 جم</t>
-  </si>
-  <si>
-    <t>بن ابو عوف سادة فاتح - 50 جم</t>
-  </si>
-  <si>
-    <t>زيت قلية خليط - 1 لتر</t>
-  </si>
-  <si>
-    <t>بطارية ريموت افيريدى ازرق - 20 حجر</t>
-  </si>
-  <si>
-    <t>حفاضات بيبى جوى كلوت مضغوط جامبو مقاس 6 - 46 حفاضة</t>
-  </si>
-  <si>
-    <t>فيبا سائل أطباق ليمون أصفر- 4 كجم</t>
-  </si>
-  <si>
-    <t>كنور فاين فودز مرقة دجاج عرض خاص - 12 مكعب 108 جرام</t>
-  </si>
-  <si>
-    <t>ستينج فراولة مينى تربو - 250 مل</t>
-  </si>
-  <si>
-    <t>ماندولين ويفر جديد 10 جنيه  - 33 جم</t>
-  </si>
-  <si>
     <t>سمن روابى - 700 جم</t>
   </si>
   <si>
@@ -1207,207 +1207,207 @@
     <t>تايد اوتوماتيك بلمسة الداوني - 4 كجم</t>
   </si>
   <si>
+    <t>رينول  3 بسعر 2 عرض خاص - 250 مل</t>
+  </si>
+  <si>
+    <t>مولبد ماكسى مضغوطة حماية ضد البكتيريا طويل جدا فردى - 7 فوطة</t>
+  </si>
+  <si>
+    <t>كلوركس كيس التوفير 750 جم 750 جم</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>كيك شيف دريم - 23 جم</t>
+  </si>
+  <si>
+    <t>الطاووس خل أبيض طبيعي - 900 مل</t>
+  </si>
+  <si>
+    <t>رينول مطهر عام - 3 بسعر 2 عرض  - 500 مل</t>
+  </si>
+  <si>
+    <t>اولويز ماكسى سميكة طويل جدا نعومة قطنية - 7 فوطة</t>
+  </si>
+  <si>
+    <t>اريال أتوماتيك لافندر 9 كجم - 2 كيس</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الشرق - 1 كجم</t>
+  </si>
+  <si>
+    <t>اوكسي سائل أطباق ليمون اصفر - 600 جم</t>
+  </si>
+  <si>
+    <t>برسيل جل بلاك - 40 جم</t>
+  </si>
+  <si>
+    <t>مولبد ماكسى طويل مضغوطة حماية ضد البكتيريا - 8 فوطة</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس ماكسى جامبو مقاس 4 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>بريكس منظف ارضيات ليمون- 730 مل</t>
+  </si>
+  <si>
+    <t>اوكسى اوتوماتيك لافندر 8 ك + 1 ك - 9 كجم</t>
+  </si>
+  <si>
+    <t>كنور فيجيتار حار عرض خاص - 35 جم</t>
+  </si>
+  <si>
+    <t>شوكولاتة كادبورى بابلى خصم 20 جنيه - 24 جرام</t>
+  </si>
+  <si>
+    <t>ماكينة حلاقة جيليت سيمبلى فينوس تو حريمى حصيرة - 24 ماكينة</t>
+  </si>
+  <si>
+    <t>عصير جهينة مكس بيرى - 235 مل</t>
+  </si>
+  <si>
+    <t>مربى البوادى فراولة - 365 جم</t>
+  </si>
+  <si>
+    <t>صابون كامى رومانسية - 115 جم</t>
+  </si>
+  <si>
+    <t>صابون كامى اناقة - 115 جم</t>
+  </si>
+  <si>
+    <t>فاين ديل مناديل وجه 380 منديل *2 طبقة عبوة التوفير 380 منديل</t>
+  </si>
+  <si>
+    <t>رويال أعشاب ينسون - 50 فتلة</t>
+  </si>
+  <si>
+    <t>صابون كامى رومانسية - 165 جم</t>
+  </si>
+  <si>
+    <t>اندومى لحمة بيف 5 جنيه - 56 جم</t>
+  </si>
+  <si>
+    <t>هوت صوص هاينز - 165 جم</t>
+  </si>
+  <si>
+    <t>شوكولاتة جلاكسى فلوتس 2 قطعة - 22.5 جم</t>
+  </si>
+  <si>
+    <t>سمن كريستال اصفر - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون اصفر - 950 مل</t>
+  </si>
+  <si>
+    <t>اوكسى سائل اطباق ليمون أصفر ظرف 35 جرام</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى بلاك - 50 جم</t>
+  </si>
+  <si>
+    <t>كوفى بريك 3*1 - 18 جم</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جامبو مقاس 3 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>البوادي مربى كريمي فراولة - 365 جرام</t>
+  </si>
+  <si>
+    <t>مناديل بابيا سحب 4 طبقة 3 عبوات عرض خاص - 500 منديل</t>
+  </si>
+  <si>
+    <t>كوكيز العبد بقطع الشوكولاتة فانليا - 10 جنية</t>
+  </si>
+  <si>
+    <t>اوكسى اوتوماتيك نسيم الشرق 8 ك + 1 ك - 9 كجم</t>
+  </si>
+  <si>
+    <t>راني عصير خوخ حبيبات- 235 مل</t>
+  </si>
+  <si>
+    <t>راني عصير فراولة وموز حبيبات- 235 مل</t>
+  </si>
+  <si>
+    <t>فاين سوبر مناديل مطبخ 5+1 رول * 2 طبقة 6 رول</t>
+  </si>
+  <si>
+    <t>راني عصير مانجو حبيبات- 235 مل</t>
+  </si>
+  <si>
+    <t>بن ابو عوف سادة وسط - 50 جم</t>
+  </si>
+  <si>
+    <t>حفاضات بامبرز عبوة التوفير مقاس 1 - 60 حفاضة</t>
+  </si>
+  <si>
+    <t>نودلز يودلز بالشطة المولعة 5 جنيه - 60 جم</t>
+  </si>
+  <si>
+    <t>مربى البوادى فراولة - 200 جم</t>
+  </si>
+  <si>
+    <t>شامبو وبسلم سباركل للشعر العادي - 350 مل</t>
+  </si>
+  <si>
+    <t>كيك لارش ميلت كاكاو بصوص الشيكولاتة 6 قطعه</t>
+  </si>
+  <si>
+    <t>ريد للحشرات الطائرة - 269 مل</t>
+  </si>
+  <si>
+    <t>زيت كريستال الممتاز خليط - 2.5 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس ابيض غيار - 1 كجم</t>
+  </si>
+  <si>
+    <t>المراعي جبنة فيتا بالزيتون - 250 جم</t>
+  </si>
+  <si>
+    <t>بسكويت دانش - 10 قطعه</t>
+  </si>
+  <si>
+    <t>بسكويت ﺗﺎﻭﺗﺎﻭ ﻣﺎﺭﺷﻴﻤﺎﻟﻮ جوز هند بالشوكلاتة البيضاء - 5 جنية</t>
+  </si>
+  <si>
+    <t>مسحوق ليدر اتوماتيك جردل لافندر (1ك زيادة) - 5 كجم</t>
+  </si>
+  <si>
+    <t>حفاضات بيبى جوى مضغوطة كبير جدا مقاس 5 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>ميزة دقيق - 1 كجم</t>
+  </si>
+  <si>
+    <t>حفاضات بى بم جامبو مقاس 3 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل يدوى ابيض - 9 كجم</t>
+  </si>
+  <si>
+    <t>زيت كريستال ذرة 6 زجاجة - 700 مل</t>
+  </si>
+  <si>
+    <t>راني عصير مشروب  مانجو - 235 مل</t>
+  </si>
+  <si>
+    <t>فاين مناديل تواليت كمفورت 24 رول20+ 4مجانا 24 رول</t>
+  </si>
+  <si>
+    <t>اندومى سوبر مى خضار - 5 جنيه - 56 جم</t>
+  </si>
+  <si>
+    <t>سمن روابى قشطة - 700 جم</t>
+  </si>
+  <si>
+    <t>سبرايت - 2.45 لتر</t>
+  </si>
+  <si>
     <t>بسكويت ماندولين بالشوكولاتة و الكراميل 5 جنيه - 17 جم</t>
   </si>
   <si>
-    <t>رينول  3 بسعر 2 عرض خاص - 250 مل</t>
-  </si>
-  <si>
-    <t>مولبد ماكسى مضغوطة حماية ضد البكتيريا طويل جدا فردى - 7 فوطة</t>
-  </si>
-  <si>
-    <t>كلوركس كيس التوفير 750 جم 750 جم</t>
-  </si>
-  <si>
-    <t>شويبس جولد اناناس جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>كيك شيف دريم - 23 جم</t>
-  </si>
-  <si>
-    <t>الطاووس خل أبيض طبيعي - 900 مل</t>
-  </si>
-  <si>
-    <t>رينول مطهر عام - 3 بسعر 2 عرض  - 500 مل</t>
-  </si>
-  <si>
-    <t>اولويز ماكسى سميكة طويل جدا نعومة قطنية - 7 فوطة</t>
-  </si>
-  <si>
-    <t>اريال أتوماتيك لافندر 9 كجم - 2 كيس</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى نسيم الشرق - 1 كجم</t>
-  </si>
-  <si>
-    <t>اوكسي سائل أطباق ليمون اصفر - 600 جم</t>
-  </si>
-  <si>
-    <t>برسيل جل بلاك - 40 جم</t>
-  </si>
-  <si>
-    <t>مولبد ماكسى طويل مضغوطة حماية ضد البكتيريا - 8 فوطة</t>
-  </si>
-  <si>
-    <t>حفاضات مولفيكس ماكسى جامبو مقاس 4 - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>بريكس منظف ارضيات ليمون- 730 مل</t>
-  </si>
-  <si>
-    <t>اوكسى اوتوماتيك لافندر 8 ك + 1 ك - 9 كجم</t>
-  </si>
-  <si>
-    <t>كنور فيجيتار حار عرض خاص - 35 جم</t>
-  </si>
-  <si>
-    <t>شوكولاتة كادبورى بابلى خصم 20 جنيه - 24 جرام</t>
-  </si>
-  <si>
-    <t>ماكينة حلاقة جيليت سيمبلى فينوس تو حريمى حصيرة - 24 ماكينة</t>
-  </si>
-  <si>
-    <t>عصير جهينة مكس بيرى - 235 مل</t>
-  </si>
-  <si>
-    <t>مربى البوادى فراولة - 365 جم</t>
-  </si>
-  <si>
-    <t>صابون كامى رومانسية - 115 جم</t>
-  </si>
-  <si>
-    <t>صابون كامى اناقة - 115 جم</t>
-  </si>
-  <si>
-    <t>فاين ديل مناديل وجه 380 منديل *2 طبقة عبوة التوفير 380 منديل</t>
-  </si>
-  <si>
-    <t>رويال أعشاب ينسون - 50 فتلة</t>
-  </si>
-  <si>
-    <t>صابون كامى رومانسية - 165 جم</t>
-  </si>
-  <si>
-    <t>اندومى لحمة بيف 5 جنيه - 56 جم</t>
-  </si>
-  <si>
-    <t>هوت صوص هاينز - 165 جم</t>
-  </si>
-  <si>
-    <t>شوكولاتة جلاكسى فلوتس 2 قطعة - 22.5 جم</t>
-  </si>
-  <si>
-    <t>سمن كريستال اصفر - 1.5 كجم</t>
-  </si>
-  <si>
-    <t>كلوركس كلور ابيض ليمون اصفر - 950 مل</t>
-  </si>
-  <si>
-    <t>اوكسى سائل اطباق ليمون أصفر ظرف 35 جرام</t>
-  </si>
-  <si>
-    <t>اوكسى جل يدوى بلاك - 50 جم</t>
-  </si>
-  <si>
-    <t>كوفى بريك 3*1 - 18 جم</t>
-  </si>
-  <si>
-    <t>حفاضات مولفيكس جامبو مقاس 3 - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>البوادي مربى كريمي فراولة - 365 جرام</t>
-  </si>
-  <si>
-    <t>مناديل بابيا سحب 4 طبقة 3 عبوات عرض خاص - 500 منديل</t>
-  </si>
-  <si>
-    <t>كوكيز العبد بقطع الشوكولاتة فانليا - 10 جنية</t>
-  </si>
-  <si>
-    <t>اوكسى اوتوماتيك نسيم الشرق 8 ك + 1 ك - 9 كجم</t>
-  </si>
-  <si>
-    <t>راني عصير خوخ حبيبات- 235 مل</t>
-  </si>
-  <si>
-    <t>راني عصير فراولة وموز حبيبات- 235 مل</t>
-  </si>
-  <si>
-    <t>فاين سوبر مناديل مطبخ 5+1 رول * 2 طبقة 6 رول</t>
-  </si>
-  <si>
-    <t>راني عصير مانجو حبيبات- 235 مل</t>
-  </si>
-  <si>
-    <t>بن ابو عوف سادة وسط - 50 جم</t>
-  </si>
-  <si>
-    <t>حفاضات بامبرز عبوة التوفير مقاس 1 - 60 حفاضة</t>
-  </si>
-  <si>
-    <t>نودلز يودلز بالشطة المولعة 5 جنيه - 60 جم</t>
-  </si>
-  <si>
-    <t>مربى البوادى فراولة - 200 جم</t>
-  </si>
-  <si>
-    <t>شامبو وبسلم سباركل للشعر العادي - 350 مل</t>
-  </si>
-  <si>
-    <t>كيك لارش ميلت كاكاو بصوص الشيكولاتة 6 قطعه</t>
-  </si>
-  <si>
-    <t>ريد للحشرات الطائرة - 269 مل</t>
-  </si>
-  <si>
-    <t>زيت كريستال الممتاز خليط - 2.5 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس ابيض غيار - 1 كجم</t>
-  </si>
-  <si>
-    <t>المراعي جبنة فيتا بالزيتون - 250 جم</t>
-  </si>
-  <si>
-    <t>بسكويت دانش - 10 قطعه</t>
-  </si>
-  <si>
-    <t>بسكويت ﺗﺎﻭﺗﺎﻭ ﻣﺎﺭﺷﻴﻤﺎﻟﻮ جوز هند بالشوكلاتة البيضاء - 5 جنية</t>
-  </si>
-  <si>
-    <t>مسحوق ليدر اتوماتيك جردل لافندر (1ك زيادة) - 5 كجم</t>
-  </si>
-  <si>
-    <t>حفاضات بيبى جوى مضغوطة كبير جدا مقاس 5 - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>ميزة دقيق - 1 كجم</t>
-  </si>
-  <si>
-    <t>حفاضات بى بم جامبو مقاس 3 - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>مسحوق غسيل فل يدوى ابيض - 9 كجم</t>
-  </si>
-  <si>
-    <t>زيت كريستال ذرة 6 زجاجة - 700 مل</t>
-  </si>
-  <si>
-    <t>راني عصير مشروب  مانجو - 235 مل</t>
-  </si>
-  <si>
-    <t>فاين مناديل تواليت كمفورت 24 رول20+ 4مجانا 24 رول</t>
-  </si>
-  <si>
-    <t>اندومى سوبر مى خضار - 5 جنيه - 56 جم</t>
-  </si>
-  <si>
-    <t>سمن روابى قشطة - 700 جم</t>
-  </si>
-  <si>
-    <t>سبرايت - 2.45 لتر</t>
-  </si>
-  <si>
     <t>الطاووس خل أبيض طبيعي- 500 مل</t>
   </si>
   <si>
@@ -1627,7 +1627,7 @@
     <t>عصير جهينة تفاح كمثرى - 1 لتر</t>
   </si>
   <si>
-    <t>فاين برستيج 480 منديل عرض خاص "6 شرينك" * 3 طبقة 500 منديل</t>
+    <t>فاين برستيج عرض خاص 500 منديل  "6 شرينك" * 3 طبقة 500 منديل</t>
   </si>
   <si>
     <t>تونة ماريو مفتت بارد - 140 جم</t>
@@ -8417,7 +8417,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>483.75</v>
+        <v>484</v>
       </c>
       <c r="E3" t="s">
         <v>2661</v>
@@ -8553,7 +8553,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>73.5</v>
+        <v>73.75</v>
       </c>
       <c r="E11" t="s">
         <v>2662</v>
@@ -8570,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E12" t="s">
         <v>2661</v>
@@ -8638,7 +8638,7 @@
         <v>80</v>
       </c>
       <c r="D16">
-        <v>151.5</v>
+        <v>151.75</v>
       </c>
       <c r="E16" t="s">
         <v>2662</v>
@@ -8655,7 +8655,7 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>757.5</v>
+        <v>758.75</v>
       </c>
       <c r="E17" t="s">
         <v>2661</v>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>5151</v>
+        <v>5165</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -8706,10 +8706,10 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>1172.25</v>
+        <v>73.75</v>
       </c>
       <c r="E20" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8717,30 +8717,30 @@
         <v>5165</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>73.5</v>
+        <v>590</v>
       </c>
       <c r="E21" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>5165</v>
+        <v>5151</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>588</v>
+        <v>1172.25</v>
       </c>
       <c r="E22" t="s">
         <v>2661</v>
@@ -8969,16 +8969,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>589</v>
+        <v>413</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>187</v>
+        <v>328.25</v>
       </c>
       <c r="E36" t="s">
         <v>2661</v>
@@ -8986,19 +8986,19 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>413</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>328.25</v>
+        <v>81.75</v>
       </c>
       <c r="E37" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -9006,21 +9006,21 @@
         <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>81.75</v>
+        <v>3924</v>
       </c>
       <c r="E38" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>62</v>
+        <v>412</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
@@ -9029,7 +9029,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>3924</v>
+        <v>339</v>
       </c>
       <c r="E39" t="s">
         <v>2661</v>
@@ -9037,16 +9037,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>412</v>
+        <v>589</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>339</v>
+        <v>187.25</v>
       </c>
       <c r="E40" t="s">
         <v>2661</v>
@@ -9173,50 +9173,50 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>2422</v>
+        <v>7004</v>
       </c>
       <c r="B48" t="s">
         <v>43</v>
       </c>
       <c r="C48">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>150</v>
+        <v>360.5</v>
       </c>
       <c r="E48" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>2422</v>
+        <v>13259</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>750</v>
+        <v>398</v>
       </c>
       <c r="E49" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>7004</v>
+        <v>13259</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D50">
-        <v>360.5</v>
+        <v>796</v>
       </c>
       <c r="E50" t="s">
         <v>2661</v>
@@ -9224,50 +9224,50 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>13259</v>
+        <v>22247</v>
       </c>
       <c r="B51" t="s">
         <v>45</v>
       </c>
       <c r="C51">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>398</v>
+        <v>98.25</v>
       </c>
       <c r="E51" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>13259</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C52">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D52">
-        <v>796</v>
+        <v>227.75</v>
       </c>
       <c r="E52" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>22247</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
         <v>46</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>98.25</v>
+        <v>2733</v>
       </c>
       <c r="E53" t="s">
         <v>2661</v>
@@ -9275,50 +9275,50 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>94</v>
+        <v>11039</v>
       </c>
       <c r="B54" t="s">
         <v>47</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>227.75</v>
+        <v>254.25</v>
       </c>
       <c r="E54" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>94</v>
+        <v>2422</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D55">
-        <v>2733</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>6935</v>
+        <v>2422</v>
       </c>
       <c r="B56" t="s">
         <v>48</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D56">
-        <v>99.75</v>
+        <v>750</v>
       </c>
       <c r="E56" t="s">
         <v>2661</v>
@@ -9326,7 +9326,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>11039</v>
+        <v>6935</v>
       </c>
       <c r="B57" t="s">
         <v>49</v>
@@ -9335,7 +9335,7 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>254.25</v>
+        <v>99.75</v>
       </c>
       <c r="E57" t="s">
         <v>2661</v>
@@ -9360,16 +9360,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>2328</v>
+        <v>148</v>
       </c>
       <c r="B59" t="s">
         <v>51</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>188.5</v>
+        <v>314.5</v>
       </c>
       <c r="E59" t="s">
         <v>2661</v>
@@ -9377,16 +9377,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>1776</v>
+        <v>2328</v>
       </c>
       <c r="B60" t="s">
         <v>52</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>259.5</v>
+        <v>188.5</v>
       </c>
       <c r="E60" t="s">
         <v>2661</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>148</v>
+        <v>1776</v>
       </c>
       <c r="B61" t="s">
         <v>53</v>
@@ -9403,7 +9403,7 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>314.5</v>
+        <v>259.5</v>
       </c>
       <c r="E61" t="s">
         <v>2661</v>
@@ -9420,7 +9420,7 @@
         <v>80</v>
       </c>
       <c r="D62">
-        <v>339.75</v>
+        <v>339.25</v>
       </c>
       <c r="E62" t="s">
         <v>2662</v>
@@ -9437,7 +9437,7 @@
         <v>29</v>
       </c>
       <c r="D63">
-        <v>679.5</v>
+        <v>678.5</v>
       </c>
       <c r="E63" t="s">
         <v>2661</v>
@@ -9462,16 +9462,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>1777</v>
+        <v>11581</v>
       </c>
       <c r="B65" t="s">
         <v>56</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D65">
-        <v>258.75</v>
+        <v>457</v>
       </c>
       <c r="E65" t="s">
         <v>2661</v>
@@ -9479,7 +9479,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>1492</v>
+        <v>1777</v>
       </c>
       <c r="B66" t="s">
         <v>57</v>
@@ -9488,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>766.5</v>
+        <v>258.75</v>
       </c>
       <c r="E66" t="s">
         <v>2661</v>
@@ -9496,7 +9496,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>415</v>
+        <v>1492</v>
       </c>
       <c r="B67" t="s">
         <v>58</v>
@@ -9505,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>328.25</v>
+        <v>767.25</v>
       </c>
       <c r="E67" t="s">
         <v>2661</v>
@@ -9513,16 +9513,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>11404</v>
+        <v>415</v>
       </c>
       <c r="B68" t="s">
         <v>59</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>276.25</v>
+        <v>328.25</v>
       </c>
       <c r="E68" t="s">
         <v>2661</v>
@@ -9530,16 +9530,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>416</v>
+        <v>11404</v>
       </c>
       <c r="B69" t="s">
         <v>60</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>328.25</v>
+        <v>276.25</v>
       </c>
       <c r="E69" t="s">
         <v>2661</v>
@@ -9547,16 +9547,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>2327</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s">
         <v>61</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>188.5</v>
+        <v>328.25</v>
       </c>
       <c r="E70" t="s">
         <v>2661</v>
@@ -9564,16 +9564,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>8089</v>
+        <v>2327</v>
       </c>
       <c r="B71" t="s">
         <v>62</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>403.5</v>
+        <v>188.5</v>
       </c>
       <c r="E71" t="s">
         <v>2661</v>
@@ -9581,16 +9581,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>3478</v>
+        <v>8089</v>
       </c>
       <c r="B72" t="s">
         <v>63</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>378</v>
+        <v>403.5</v>
       </c>
       <c r="E72" t="s">
         <v>2661</v>
@@ -9598,16 +9598,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>11581</v>
+        <v>3478</v>
       </c>
       <c r="B73" t="s">
         <v>64</v>
       </c>
       <c r="C73">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>457</v>
+        <v>378</v>
       </c>
       <c r="E73" t="s">
         <v>2661</v>
@@ -9658,7 +9658,7 @@
         <v>25</v>
       </c>
       <c r="D76">
-        <v>365</v>
+        <v>364.75</v>
       </c>
       <c r="E76" t="s">
         <v>2662</v>
@@ -9675,7 +9675,7 @@
         <v>29</v>
       </c>
       <c r="D77">
-        <v>730</v>
+        <v>729.5</v>
       </c>
       <c r="E77" t="s">
         <v>2661</v>
@@ -9921,7 +9921,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>21793</v>
+        <v>414</v>
       </c>
       <c r="B92" t="s">
         <v>77</v>
@@ -9930,7 +9930,7 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>111</v>
+        <v>328.25</v>
       </c>
       <c r="E92" t="s">
         <v>2661</v>
@@ -9938,16 +9938,16 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>414</v>
+        <v>13249</v>
       </c>
       <c r="B93" t="s">
         <v>78</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D93">
-        <v>328.25</v>
+        <v>442.75</v>
       </c>
       <c r="E93" t="s">
         <v>2661</v>
@@ -9955,16 +9955,16 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>13249</v>
+        <v>21793</v>
       </c>
       <c r="B94" t="s">
         <v>79</v>
       </c>
       <c r="C94">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>442.75</v>
+        <v>114.25</v>
       </c>
       <c r="E94" t="s">
         <v>2661</v>
@@ -10406,7 +10406,7 @@
         <v>80</v>
       </c>
       <c r="D120">
-        <v>374</v>
+        <v>374.25</v>
       </c>
       <c r="E120" t="s">
         <v>2662</v>
@@ -10423,7 +10423,7 @@
         <v>29</v>
       </c>
       <c r="D121">
-        <v>748</v>
+        <v>748.5</v>
       </c>
       <c r="E121" t="s">
         <v>2661</v>
@@ -10491,7 +10491,7 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>564.75</v>
+        <v>565</v>
       </c>
       <c r="E125" t="s">
         <v>2661</v>
@@ -10525,7 +10525,7 @@
         <v>25</v>
       </c>
       <c r="D127">
-        <v>362.25</v>
+        <v>362.5</v>
       </c>
       <c r="E127" t="s">
         <v>2662</v>
@@ -10542,7 +10542,7 @@
         <v>29</v>
       </c>
       <c r="D128">
-        <v>724.5</v>
+        <v>725</v>
       </c>
       <c r="E128" t="s">
         <v>2661</v>
@@ -10737,19 +10737,19 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>307</v>
+        <v>159</v>
       </c>
       <c r="B140" t="s">
         <v>116</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D140">
-        <v>191.5</v>
+        <v>40.75</v>
       </c>
       <c r="E140" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -10757,16 +10757,16 @@
         <v>159</v>
       </c>
       <c r="B141" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D141">
-        <v>40.75</v>
+        <v>366.75</v>
       </c>
       <c r="E141" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -10774,13 +10774,13 @@
         <v>159</v>
       </c>
       <c r="B142" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C142">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>366.75</v>
+        <v>733.5</v>
       </c>
       <c r="E142" t="s">
         <v>2661</v>
@@ -10788,16 +10788,16 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="B143" t="s">
         <v>117</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>733.5</v>
+        <v>264.25</v>
       </c>
       <c r="E143" t="s">
         <v>2661</v>
@@ -10805,7 +10805,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>76</v>
+        <v>1309</v>
       </c>
       <c r="B144" t="s">
         <v>118</v>
@@ -10814,10 +10814,10 @@
         <v>2</v>
       </c>
       <c r="D144">
-        <v>264.25</v>
+        <v>42.75</v>
       </c>
       <c r="E144" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -10825,16 +10825,16 @@
         <v>1309</v>
       </c>
       <c r="B145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D145">
-        <v>41.75</v>
+        <v>42.75</v>
       </c>
       <c r="E145" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -10842,13 +10842,13 @@
         <v>1309</v>
       </c>
       <c r="B146" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C146">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>41.75</v>
+        <v>513</v>
       </c>
       <c r="E146" t="s">
         <v>2661</v>
@@ -10856,19 +10856,19 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>1309</v>
+        <v>167</v>
       </c>
       <c r="B147" t="s">
         <v>119</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>501</v>
+        <v>125.75</v>
       </c>
       <c r="E147" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -10876,21 +10876,21 @@
         <v>167</v>
       </c>
       <c r="B148" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>125.75</v>
+        <v>1509</v>
       </c>
       <c r="E148" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>167</v>
+        <v>1622</v>
       </c>
       <c r="B149" t="s">
         <v>120</v>
@@ -10899,7 +10899,7 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1509</v>
+        <v>268.75</v>
       </c>
       <c r="E149" t="s">
         <v>2661</v>
@@ -10907,16 +10907,16 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>1622</v>
+        <v>307</v>
       </c>
       <c r="B150" t="s">
         <v>121</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>268.75</v>
+        <v>191.5</v>
       </c>
       <c r="E150" t="s">
         <v>2661</v>
@@ -11069,7 +11069,7 @@
         <v>80</v>
       </c>
       <c r="D159">
-        <v>339.75</v>
+        <v>339.25</v>
       </c>
       <c r="E159" t="s">
         <v>2662</v>
@@ -11086,7 +11086,7 @@
         <v>29</v>
       </c>
       <c r="D160">
-        <v>679.5</v>
+        <v>678.5</v>
       </c>
       <c r="E160" t="s">
         <v>2661</v>
@@ -11290,7 +11290,7 @@
         <v>3</v>
       </c>
       <c r="D172">
-        <v>62</v>
+        <v>62.25</v>
       </c>
       <c r="E172" t="s">
         <v>2662</v>
@@ -11307,7 +11307,7 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="E173" t="s">
         <v>2661</v>
@@ -11409,7 +11409,7 @@
         <v>25</v>
       </c>
       <c r="D179">
-        <v>362.25</v>
+        <v>362.5</v>
       </c>
       <c r="E179" t="s">
         <v>2662</v>
@@ -11426,7 +11426,7 @@
         <v>29</v>
       </c>
       <c r="D180">
-        <v>724.5</v>
+        <v>725</v>
       </c>
       <c r="E180" t="s">
         <v>2661</v>
@@ -11443,7 +11443,7 @@
         <v>3</v>
       </c>
       <c r="D181">
-        <v>46.75</v>
+        <v>47</v>
       </c>
       <c r="E181" t="s">
         <v>2662</v>
@@ -11460,7 +11460,7 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E182" t="s">
         <v>2661</v>
@@ -12106,7 +12106,7 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>711.5</v>
+        <v>711.75</v>
       </c>
       <c r="E220" t="s">
         <v>2661</v>
@@ -12463,7 +12463,7 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>233.75</v>
+        <v>233.5</v>
       </c>
       <c r="E241" t="s">
         <v>2661</v>
@@ -12616,7 +12616,7 @@
         <v>10</v>
       </c>
       <c r="D250">
-        <v>415.5</v>
+        <v>416.25</v>
       </c>
       <c r="E250" t="s">
         <v>2662</v>
@@ -12633,7 +12633,7 @@
         <v>1</v>
       </c>
       <c r="D251">
-        <v>831</v>
+        <v>832.5</v>
       </c>
       <c r="E251" t="s">
         <v>2661</v>
@@ -13245,7 +13245,7 @@
         <v>1</v>
       </c>
       <c r="D287">
-        <v>781.5</v>
+        <v>781</v>
       </c>
       <c r="E287" t="s">
         <v>2661</v>
@@ -13619,7 +13619,7 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>840.25</v>
+        <v>839</v>
       </c>
       <c r="E309" t="s">
         <v>2661</v>
@@ -14222,33 +14222,33 @@
     </row>
     <row r="345" spans="1:5">
       <c r="A345">
-        <v>18964</v>
+        <v>22316</v>
       </c>
       <c r="B345" t="s">
         <v>262</v>
       </c>
       <c r="C345">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D345">
-        <v>422.5</v>
+        <v>91</v>
       </c>
       <c r="E345" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346">
-        <v>5188</v>
+        <v>22316</v>
       </c>
       <c r="B346" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C346">
         <v>1</v>
       </c>
       <c r="D346">
-        <v>876</v>
+        <v>1092</v>
       </c>
       <c r="E346" t="s">
         <v>2661</v>
@@ -14256,16 +14256,16 @@
     </row>
     <row r="347" spans="1:5">
       <c r="A347">
-        <v>11770</v>
+        <v>18964</v>
       </c>
       <c r="B347" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C347">
         <v>1</v>
       </c>
       <c r="D347">
-        <v>133.5</v>
+        <v>422.5</v>
       </c>
       <c r="E347" t="s">
         <v>2661</v>
@@ -14273,24 +14273,24 @@
     </row>
     <row r="348" spans="1:5">
       <c r="A348">
-        <v>21269</v>
+        <v>5188</v>
       </c>
       <c r="B348" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C348">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D348">
-        <v>89.25</v>
+        <v>876</v>
       </c>
       <c r="E348" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349">
-        <v>21269</v>
+        <v>11770</v>
       </c>
       <c r="B349" t="s">
         <v>265</v>
@@ -14299,7 +14299,7 @@
         <v>1</v>
       </c>
       <c r="D349">
-        <v>357</v>
+        <v>133.5</v>
       </c>
       <c r="E349" t="s">
         <v>2661</v>
@@ -14341,7 +14341,7 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352">
-        <v>22316</v>
+        <v>9827</v>
       </c>
       <c r="B352" t="s">
         <v>267</v>
@@ -14350,7 +14350,7 @@
         <v>3</v>
       </c>
       <c r="D352">
-        <v>91</v>
+        <v>331</v>
       </c>
       <c r="E352" t="s">
         <v>2662</v>
@@ -14358,7 +14358,7 @@
     </row>
     <row r="353" spans="1:5">
       <c r="A353">
-        <v>22316</v>
+        <v>9827</v>
       </c>
       <c r="B353" t="s">
         <v>267</v>
@@ -14367,7 +14367,7 @@
         <v>1</v>
       </c>
       <c r="D353">
-        <v>1092</v>
+        <v>2648</v>
       </c>
       <c r="E353" t="s">
         <v>2661</v>
@@ -14375,50 +14375,50 @@
     </row>
     <row r="354" spans="1:5">
       <c r="A354">
-        <v>9827</v>
+        <v>470</v>
       </c>
       <c r="B354" t="s">
         <v>268</v>
       </c>
       <c r="C354">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D354">
-        <v>331</v>
+        <v>847</v>
       </c>
       <c r="E354" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355">
-        <v>9827</v>
+        <v>10780</v>
       </c>
       <c r="B355" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D355">
-        <v>2648</v>
+        <v>69</v>
       </c>
       <c r="E355" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356">
-        <v>470</v>
+        <v>10780</v>
       </c>
       <c r="B356" t="s">
         <v>269</v>
       </c>
       <c r="C356">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D356">
-        <v>847</v>
+        <v>345</v>
       </c>
       <c r="E356" t="s">
         <v>2661</v>
@@ -14429,47 +14429,47 @@
         <v>10780</v>
       </c>
       <c r="B357" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C357">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D357">
-        <v>69</v>
+        <v>3450</v>
       </c>
       <c r="E357" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358">
-        <v>10780</v>
+        <v>10721</v>
       </c>
       <c r="B358" t="s">
         <v>270</v>
       </c>
       <c r="C358">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="D358">
-        <v>345</v>
+        <v>279.25</v>
       </c>
       <c r="E358" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359">
-        <v>10780</v>
+        <v>10721</v>
       </c>
       <c r="B359" t="s">
         <v>270</v>
       </c>
       <c r="C359">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D359">
-        <v>3450</v>
+        <v>837.75</v>
       </c>
       <c r="E359" t="s">
         <v>2661</v>
@@ -14477,41 +14477,41 @@
     </row>
     <row r="360" spans="1:5">
       <c r="A360">
-        <v>10721</v>
+        <v>1274</v>
       </c>
       <c r="B360" t="s">
         <v>271</v>
       </c>
       <c r="C360">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D360">
-        <v>279.25</v>
+        <v>358</v>
       </c>
       <c r="E360" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361">
-        <v>10721</v>
+        <v>11485</v>
       </c>
       <c r="B361" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C361">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D361">
-        <v>837.75</v>
+        <v>129.75</v>
       </c>
       <c r="E361" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362">
-        <v>1274</v>
+        <v>11485</v>
       </c>
       <c r="B362" t="s">
         <v>272</v>
@@ -14520,7 +14520,7 @@
         <v>1</v>
       </c>
       <c r="D362">
-        <v>358</v>
+        <v>1038</v>
       </c>
       <c r="E362" t="s">
         <v>2661</v>
@@ -14528,50 +14528,50 @@
     </row>
     <row r="363" spans="1:5">
       <c r="A363">
-        <v>11485</v>
+        <v>6158</v>
       </c>
       <c r="B363" t="s">
         <v>273</v>
       </c>
       <c r="C363">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D363">
-        <v>129.75</v>
+        <v>110.75</v>
       </c>
       <c r="E363" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364">
-        <v>11485</v>
+        <v>22317</v>
       </c>
       <c r="B364" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C364">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D364">
-        <v>1038</v>
+        <v>91</v>
       </c>
       <c r="E364" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365">
-        <v>6158</v>
+        <v>22317</v>
       </c>
       <c r="B365" t="s">
         <v>274</v>
       </c>
       <c r="C365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D365">
-        <v>110.75</v>
+        <v>1092</v>
       </c>
       <c r="E365" t="s">
         <v>2661</v>
@@ -14579,7 +14579,7 @@
     </row>
     <row r="366" spans="1:5">
       <c r="A366">
-        <v>22317</v>
+        <v>21269</v>
       </c>
       <c r="B366" t="s">
         <v>275</v>
@@ -14588,7 +14588,7 @@
         <v>3</v>
       </c>
       <c r="D366">
-        <v>91</v>
+        <v>89.25</v>
       </c>
       <c r="E366" t="s">
         <v>2662</v>
@@ -14596,7 +14596,7 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367">
-        <v>22317</v>
+        <v>21269</v>
       </c>
       <c r="B367" t="s">
         <v>275</v>
@@ -14605,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="D367">
-        <v>1092</v>
+        <v>357</v>
       </c>
       <c r="E367" t="s">
         <v>2661</v>
@@ -14639,7 +14639,7 @@
         <v>1</v>
       </c>
       <c r="D369">
-        <v>952.75</v>
+        <v>949.25</v>
       </c>
       <c r="E369" t="s">
         <v>2661</v>
@@ -14775,7 +14775,7 @@
         <v>1</v>
       </c>
       <c r="D377">
-        <v>144.5</v>
+        <v>144.75</v>
       </c>
       <c r="E377" t="s">
         <v>2661</v>
@@ -14826,7 +14826,7 @@
         <v>80</v>
       </c>
       <c r="D380">
-        <v>210.5</v>
+        <v>213.75</v>
       </c>
       <c r="E380" t="s">
         <v>2662</v>
@@ -14843,7 +14843,7 @@
         <v>29</v>
       </c>
       <c r="D381">
-        <v>631.5</v>
+        <v>641.25</v>
       </c>
       <c r="E381" t="s">
         <v>2661</v>
@@ -14962,7 +14962,7 @@
         <v>1</v>
       </c>
       <c r="D388">
-        <v>358.25</v>
+        <v>358</v>
       </c>
       <c r="E388" t="s">
         <v>2661</v>
@@ -14979,7 +14979,7 @@
         <v>1</v>
       </c>
       <c r="D389">
-        <v>144.5</v>
+        <v>144.75</v>
       </c>
       <c r="E389" t="s">
         <v>2661</v>
@@ -15523,7 +15523,7 @@
         <v>29</v>
       </c>
       <c r="D421">
-        <v>281.25</v>
+        <v>281</v>
       </c>
       <c r="E421" t="s">
         <v>2661</v>
@@ -15744,7 +15744,7 @@
         <v>2</v>
       </c>
       <c r="D434">
-        <v>289.5</v>
+        <v>289.25</v>
       </c>
       <c r="E434" t="s">
         <v>2661</v>
@@ -16050,7 +16050,7 @@
         <v>1</v>
       </c>
       <c r="D452">
-        <v>875.5</v>
+        <v>873.5</v>
       </c>
       <c r="E452" t="s">
         <v>2661</v>
@@ -17223,7 +17223,7 @@
         <v>1</v>
       </c>
       <c r="D521">
-        <v>463.75</v>
+        <v>463.25</v>
       </c>
       <c r="E521" t="s">
         <v>2661</v>
@@ -17257,7 +17257,7 @@
         <v>1</v>
       </c>
       <c r="D523">
-        <v>254.5</v>
+        <v>255.75</v>
       </c>
       <c r="E523" t="s">
         <v>2661</v>
@@ -17376,7 +17376,7 @@
         <v>1</v>
       </c>
       <c r="D530">
-        <v>778.25</v>
+        <v>774.25</v>
       </c>
       <c r="E530" t="s">
         <v>2661</v>
@@ -17393,7 +17393,7 @@
         <v>3</v>
       </c>
       <c r="D531">
-        <v>32.25</v>
+        <v>32.5</v>
       </c>
       <c r="E531" t="s">
         <v>2662</v>
@@ -17410,7 +17410,7 @@
         <v>1</v>
       </c>
       <c r="D532">
-        <v>1290</v>
+        <v>1300</v>
       </c>
       <c r="E532" t="s">
         <v>2661</v>
@@ -17656,50 +17656,50 @@
     </row>
     <row r="547" spans="1:5">
       <c r="A547">
-        <v>2336</v>
+        <v>13462</v>
       </c>
       <c r="B547" t="s">
         <v>397</v>
       </c>
       <c r="C547">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D547">
-        <v>50</v>
+        <v>428</v>
       </c>
       <c r="E547" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="548" spans="1:5">
       <c r="A548">
-        <v>2336</v>
+        <v>9122</v>
       </c>
       <c r="B548" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C548">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D548">
-        <v>1200</v>
+        <v>24.75</v>
       </c>
       <c r="E548" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="549" spans="1:5">
       <c r="A549">
-        <v>13462</v>
+        <v>9122</v>
       </c>
       <c r="B549" t="s">
         <v>398</v>
       </c>
       <c r="C549">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D549">
-        <v>428</v>
+        <v>99</v>
       </c>
       <c r="E549" t="s">
         <v>2661</v>
@@ -17710,30 +17710,30 @@
         <v>9122</v>
       </c>
       <c r="B550" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C550">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D550">
-        <v>24.75</v>
+        <v>396</v>
       </c>
       <c r="E550" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="551" spans="1:5">
       <c r="A551">
-        <v>9122</v>
+        <v>24378</v>
       </c>
       <c r="B551" t="s">
         <v>399</v>
       </c>
       <c r="C551">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D551">
-        <v>99</v>
+        <v>151.75</v>
       </c>
       <c r="E551" t="s">
         <v>2661</v>
@@ -17741,16 +17741,16 @@
     </row>
     <row r="552" spans="1:5">
       <c r="A552">
-        <v>9122</v>
+        <v>5493</v>
       </c>
       <c r="B552" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C552">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D552">
-        <v>396</v>
+        <v>263</v>
       </c>
       <c r="E552" t="s">
         <v>2661</v>
@@ -17758,33 +17758,33 @@
     </row>
     <row r="553" spans="1:5">
       <c r="A553">
-        <v>24378</v>
+        <v>8120</v>
       </c>
       <c r="B553" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C553">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D553">
-        <v>151.75</v>
+        <v>120.5</v>
       </c>
       <c r="E553" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="554" spans="1:5">
       <c r="A554">
-        <v>5493</v>
+        <v>8120</v>
       </c>
       <c r="B554" t="s">
         <v>401</v>
       </c>
       <c r="C554">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D554">
-        <v>263</v>
+        <v>1446</v>
       </c>
       <c r="E554" t="s">
         <v>2661</v>
@@ -17792,33 +17792,33 @@
     </row>
     <row r="555" spans="1:5">
       <c r="A555">
-        <v>8120</v>
+        <v>5660</v>
       </c>
       <c r="B555" t="s">
         <v>402</v>
       </c>
       <c r="C555">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D555">
-        <v>120.5</v>
+        <v>160.5</v>
       </c>
       <c r="E555" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="556" spans="1:5">
       <c r="A556">
-        <v>8120</v>
+        <v>13467</v>
       </c>
       <c r="B556" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C556">
         <v>1</v>
       </c>
       <c r="D556">
-        <v>1446</v>
+        <v>720.5</v>
       </c>
       <c r="E556" t="s">
         <v>2661</v>
@@ -17826,33 +17826,33 @@
     </row>
     <row r="557" spans="1:5">
       <c r="A557">
-        <v>5660</v>
+        <v>2217</v>
       </c>
       <c r="B557" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C557">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D557">
-        <v>160.5</v>
+        <v>22.5</v>
       </c>
       <c r="E557" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="558" spans="1:5">
       <c r="A558">
-        <v>13467</v>
+        <v>2217</v>
       </c>
       <c r="B558" t="s">
         <v>404</v>
       </c>
       <c r="C558">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D558">
-        <v>720.5</v>
+        <v>90</v>
       </c>
       <c r="E558" t="s">
         <v>2661</v>
@@ -17863,16 +17863,16 @@
         <v>2217</v>
       </c>
       <c r="B559" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C559">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D559">
-        <v>22.5</v>
+        <v>180</v>
       </c>
       <c r="E559" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -17880,13 +17880,13 @@
         <v>2217</v>
       </c>
       <c r="B560" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C560">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D560">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="E560" t="s">
         <v>2661</v>
@@ -17894,16 +17894,16 @@
     </row>
     <row r="561" spans="1:5">
       <c r="A561">
-        <v>2217</v>
+        <v>19686</v>
       </c>
       <c r="B561" t="s">
         <v>405</v>
       </c>
       <c r="C561">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D561">
-        <v>180</v>
+        <v>940.5</v>
       </c>
       <c r="E561" t="s">
         <v>2661</v>
@@ -17911,16 +17911,16 @@
     </row>
     <row r="562" spans="1:5">
       <c r="A562">
-        <v>2217</v>
+        <v>11180</v>
       </c>
       <c r="B562" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C562">
         <v>1</v>
       </c>
       <c r="D562">
-        <v>360</v>
+        <v>328.25</v>
       </c>
       <c r="E562" t="s">
         <v>2661</v>
@@ -17928,16 +17928,16 @@
     </row>
     <row r="563" spans="1:5">
       <c r="A563">
-        <v>19686</v>
+        <v>1668</v>
       </c>
       <c r="B563" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C563">
         <v>1</v>
       </c>
       <c r="D563">
-        <v>940.5</v>
+        <v>284</v>
       </c>
       <c r="E563" t="s">
         <v>2661</v>
@@ -17945,16 +17945,16 @@
     </row>
     <row r="564" spans="1:5">
       <c r="A564">
-        <v>11180</v>
+        <v>21060</v>
       </c>
       <c r="B564" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C564">
         <v>1</v>
       </c>
       <c r="D564">
-        <v>328.25</v>
+        <v>88.25</v>
       </c>
       <c r="E564" t="s">
         <v>2661</v>
@@ -17962,33 +17962,33 @@
     </row>
     <row r="565" spans="1:5">
       <c r="A565">
-        <v>1668</v>
+        <v>12463</v>
       </c>
       <c r="B565" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C565">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D565">
-        <v>284</v>
+        <v>24.5</v>
       </c>
       <c r="E565" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="566" spans="1:5">
       <c r="A566">
-        <v>21060</v>
+        <v>12463</v>
       </c>
       <c r="B566" t="s">
         <v>409</v>
       </c>
       <c r="C566">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D566">
-        <v>88.25</v>
+        <v>98</v>
       </c>
       <c r="E566" t="s">
         <v>2661</v>
@@ -17999,47 +17999,47 @@
         <v>12463</v>
       </c>
       <c r="B567" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C567">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D567">
-        <v>24.5</v>
+        <v>392</v>
       </c>
       <c r="E567" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="568" spans="1:5">
       <c r="A568">
-        <v>12463</v>
+        <v>1407</v>
       </c>
       <c r="B568" t="s">
         <v>410</v>
       </c>
       <c r="C568">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D568">
-        <v>98</v>
+        <v>305.25</v>
       </c>
       <c r="E568" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="569" spans="1:5">
       <c r="A569">
-        <v>12463</v>
+        <v>1407</v>
       </c>
       <c r="B569" t="s">
         <v>410</v>
       </c>
       <c r="C569">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D569">
-        <v>392</v>
+        <v>915.75</v>
       </c>
       <c r="E569" t="s">
         <v>2661</v>
@@ -18047,33 +18047,33 @@
     </row>
     <row r="570" spans="1:5">
       <c r="A570">
-        <v>1407</v>
+        <v>3452</v>
       </c>
       <c r="B570" t="s">
         <v>411</v>
       </c>
       <c r="C570">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D570">
-        <v>305.25</v>
+        <v>387.5</v>
       </c>
       <c r="E570" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="571" spans="1:5">
       <c r="A571">
-        <v>1407</v>
+        <v>4327</v>
       </c>
       <c r="B571" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C571">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D571">
-        <v>915.75</v>
+        <v>876</v>
       </c>
       <c r="E571" t="s">
         <v>2661</v>
@@ -18081,24 +18081,24 @@
     </row>
     <row r="572" spans="1:5">
       <c r="A572">
-        <v>3452</v>
+        <v>5939</v>
       </c>
       <c r="B572" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C572">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D572">
-        <v>387.5</v>
+        <v>108.5</v>
       </c>
       <c r="E572" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="573" spans="1:5">
       <c r="A573">
-        <v>4327</v>
+        <v>5939</v>
       </c>
       <c r="B573" t="s">
         <v>413</v>
@@ -18107,7 +18107,7 @@
         <v>1</v>
       </c>
       <c r="D573">
-        <v>876</v>
+        <v>651</v>
       </c>
       <c r="E573" t="s">
         <v>2661</v>
@@ -18115,7 +18115,7 @@
     </row>
     <row r="574" spans="1:5">
       <c r="A574">
-        <v>5939</v>
+        <v>23903</v>
       </c>
       <c r="B574" t="s">
         <v>414</v>
@@ -18124,7 +18124,7 @@
         <v>3</v>
       </c>
       <c r="D574">
-        <v>108.5</v>
+        <v>213.5</v>
       </c>
       <c r="E574" t="s">
         <v>2662</v>
@@ -18132,7 +18132,7 @@
     </row>
     <row r="575" spans="1:5">
       <c r="A575">
-        <v>5939</v>
+        <v>23903</v>
       </c>
       <c r="B575" t="s">
         <v>414</v>
@@ -18141,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="D575">
-        <v>651</v>
+        <v>2562</v>
       </c>
       <c r="E575" t="s">
         <v>2661</v>
@@ -18149,16 +18149,16 @@
     </row>
     <row r="576" spans="1:5">
       <c r="A576">
-        <v>23903</v>
+        <v>12041</v>
       </c>
       <c r="B576" t="s">
         <v>415</v>
       </c>
       <c r="C576">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="D576">
-        <v>213.5</v>
+        <v>423.25</v>
       </c>
       <c r="E576" t="s">
         <v>2662</v>
@@ -18166,7 +18166,7 @@
     </row>
     <row r="577" spans="1:5">
       <c r="A577">
-        <v>23903</v>
+        <v>12041</v>
       </c>
       <c r="B577" t="s">
         <v>415</v>
@@ -18175,7 +18175,7 @@
         <v>1</v>
       </c>
       <c r="D577">
-        <v>2562</v>
+        <v>5079</v>
       </c>
       <c r="E577" t="s">
         <v>2661</v>
@@ -18183,50 +18183,50 @@
     </row>
     <row r="578" spans="1:5">
       <c r="A578">
-        <v>12041</v>
+        <v>11504</v>
       </c>
       <c r="B578" t="s">
         <v>416</v>
       </c>
       <c r="C578">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D578">
-        <v>423.25</v>
+        <v>201.25</v>
       </c>
       <c r="E578" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="579" spans="1:5">
       <c r="A579">
-        <v>12041</v>
+        <v>10407</v>
       </c>
       <c r="B579" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C579">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D579">
-        <v>5079</v>
+        <v>24</v>
       </c>
       <c r="E579" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="580" spans="1:5">
       <c r="A580">
-        <v>11504</v>
+        <v>10407</v>
       </c>
       <c r="B580" t="s">
         <v>417</v>
       </c>
       <c r="C580">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D580">
-        <v>201.25</v>
+        <v>288</v>
       </c>
       <c r="E580" t="s">
         <v>2661</v>
@@ -18234,16 +18234,16 @@
     </row>
     <row r="581" spans="1:5">
       <c r="A581">
-        <v>10407</v>
+        <v>8286</v>
       </c>
       <c r="B581" t="s">
         <v>418</v>
       </c>
       <c r="C581">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D581">
-        <v>24</v>
+        <v>60.25</v>
       </c>
       <c r="E581" t="s">
         <v>2662</v>
@@ -18251,7 +18251,7 @@
     </row>
     <row r="582" spans="1:5">
       <c r="A582">
-        <v>10407</v>
+        <v>8286</v>
       </c>
       <c r="B582" t="s">
         <v>418</v>
@@ -18260,7 +18260,7 @@
         <v>1</v>
       </c>
       <c r="D582">
-        <v>288</v>
+        <v>723</v>
       </c>
       <c r="E582" t="s">
         <v>2661</v>
@@ -18268,7 +18268,7 @@
     </row>
     <row r="583" spans="1:5">
       <c r="A583">
-        <v>8286</v>
+        <v>8283</v>
       </c>
       <c r="B583" t="s">
         <v>419</v>
@@ -18285,7 +18285,7 @@
     </row>
     <row r="584" spans="1:5">
       <c r="A584">
-        <v>8286</v>
+        <v>8283</v>
       </c>
       <c r="B584" t="s">
         <v>419</v>
@@ -18302,50 +18302,50 @@
     </row>
     <row r="585" spans="1:5">
       <c r="A585">
-        <v>8283</v>
+        <v>13266</v>
       </c>
       <c r="B585" t="s">
         <v>420</v>
       </c>
       <c r="C585">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D585">
-        <v>60.25</v>
+        <v>251.5</v>
       </c>
       <c r="E585" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="586" spans="1:5">
       <c r="A586">
-        <v>8283</v>
+        <v>3982</v>
       </c>
       <c r="B586" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C586">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D586">
-        <v>723</v>
+        <v>35.75</v>
       </c>
       <c r="E586" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="587" spans="1:5">
       <c r="A587">
-        <v>13266</v>
+        <v>3982</v>
       </c>
       <c r="B587" t="s">
         <v>421</v>
       </c>
       <c r="C587">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D587">
-        <v>251.5</v>
+        <v>1287</v>
       </c>
       <c r="E587" t="s">
         <v>2661</v>
@@ -18353,16 +18353,16 @@
     </row>
     <row r="588" spans="1:5">
       <c r="A588">
-        <v>3982</v>
+        <v>8756</v>
       </c>
       <c r="B588" t="s">
         <v>422</v>
       </c>
       <c r="C588">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D588">
-        <v>35.75</v>
+        <v>83.5</v>
       </c>
       <c r="E588" t="s">
         <v>2662</v>
@@ -18370,7 +18370,7 @@
     </row>
     <row r="589" spans="1:5">
       <c r="A589">
-        <v>3982</v>
+        <v>8756</v>
       </c>
       <c r="B589" t="s">
         <v>422</v>
@@ -18379,7 +18379,7 @@
         <v>1</v>
       </c>
       <c r="D589">
-        <v>1287</v>
+        <v>1002</v>
       </c>
       <c r="E589" t="s">
         <v>2661</v>
@@ -18387,33 +18387,33 @@
     </row>
     <row r="590" spans="1:5">
       <c r="A590">
-        <v>8756</v>
+        <v>12225</v>
       </c>
       <c r="B590" t="s">
         <v>423</v>
       </c>
       <c r="C590">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D590">
-        <v>83.5</v>
+        <v>173.5</v>
       </c>
       <c r="E590" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="591" spans="1:5">
       <c r="A591">
-        <v>8756</v>
+        <v>1055</v>
       </c>
       <c r="B591" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C591">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D591">
-        <v>1002</v>
+        <v>802</v>
       </c>
       <c r="E591" t="s">
         <v>2661</v>
@@ -18421,33 +18421,33 @@
     </row>
     <row r="592" spans="1:5">
       <c r="A592">
-        <v>12225</v>
+        <v>3048</v>
       </c>
       <c r="B592" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C592">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D592">
-        <v>173.5</v>
+        <v>100.25</v>
       </c>
       <c r="E592" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="593" spans="1:5">
       <c r="A593">
-        <v>1055</v>
+        <v>3048</v>
       </c>
       <c r="B593" t="s">
         <v>425</v>
       </c>
       <c r="C593">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D593">
-        <v>802</v>
+        <v>2406</v>
       </c>
       <c r="E593" t="s">
         <v>2661</v>
@@ -18455,33 +18455,33 @@
     </row>
     <row r="594" spans="1:5">
       <c r="A594">
-        <v>3048</v>
+        <v>18</v>
       </c>
       <c r="B594" t="s">
         <v>426</v>
       </c>
       <c r="C594">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D594">
-        <v>100.25</v>
+        <v>596.25</v>
       </c>
       <c r="E594" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="595" spans="1:5">
       <c r="A595">
-        <v>3048</v>
+        <v>3386</v>
       </c>
       <c r="B595" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C595">
         <v>1</v>
       </c>
       <c r="D595">
-        <v>2406</v>
+        <v>325.25</v>
       </c>
       <c r="E595" t="s">
         <v>2661</v>
@@ -18489,16 +18489,16 @@
     </row>
     <row r="596" spans="1:5">
       <c r="A596">
-        <v>18</v>
+        <v>11587</v>
       </c>
       <c r="B596" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C596">
         <v>1</v>
       </c>
       <c r="D596">
-        <v>596.5</v>
+        <v>72.25</v>
       </c>
       <c r="E596" t="s">
         <v>2661</v>
@@ -18506,16 +18506,16 @@
     </row>
     <row r="597" spans="1:5">
       <c r="A597">
-        <v>3386</v>
+        <v>11183</v>
       </c>
       <c r="B597" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C597">
         <v>1</v>
       </c>
       <c r="D597">
-        <v>325.25</v>
+        <v>76.5</v>
       </c>
       <c r="E597" t="s">
         <v>2661</v>
@@ -18523,24 +18523,24 @@
     </row>
     <row r="598" spans="1:5">
       <c r="A598">
-        <v>11587</v>
+        <v>10574</v>
       </c>
       <c r="B598" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C598">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D598">
-        <v>72.25</v>
+        <v>56.25</v>
       </c>
       <c r="E598" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="599" spans="1:5">
       <c r="A599">
-        <v>11183</v>
+        <v>10574</v>
       </c>
       <c r="B599" t="s">
         <v>430</v>
@@ -18549,7 +18549,7 @@
         <v>1</v>
       </c>
       <c r="D599">
-        <v>76.5</v>
+        <v>1350</v>
       </c>
       <c r="E599" t="s">
         <v>2661</v>
@@ -18557,16 +18557,16 @@
     </row>
     <row r="600" spans="1:5">
       <c r="A600">
-        <v>10574</v>
+        <v>1432</v>
       </c>
       <c r="B600" t="s">
         <v>431</v>
       </c>
       <c r="C600">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D600">
-        <v>56.25</v>
+        <v>306.75</v>
       </c>
       <c r="E600" t="s">
         <v>2662</v>
@@ -18574,16 +18574,16 @@
     </row>
     <row r="601" spans="1:5">
       <c r="A601">
-        <v>10574</v>
+        <v>1432</v>
       </c>
       <c r="B601" t="s">
         <v>431</v>
       </c>
       <c r="C601">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D601">
-        <v>1350</v>
+        <v>920.25</v>
       </c>
       <c r="E601" t="s">
         <v>2661</v>
@@ -18591,16 +18591,16 @@
     </row>
     <row r="602" spans="1:5">
       <c r="A602">
-        <v>1432</v>
+        <v>23040</v>
       </c>
       <c r="B602" t="s">
         <v>432</v>
       </c>
       <c r="C602">
+        <v>10</v>
+      </c>
+      <c r="D602">
         <v>25</v>
-      </c>
-      <c r="D602">
-        <v>306.75</v>
       </c>
       <c r="E602" t="s">
         <v>2662</v>
@@ -18608,16 +18608,16 @@
     </row>
     <row r="603" spans="1:5">
       <c r="A603">
-        <v>1432</v>
+        <v>23040</v>
       </c>
       <c r="B603" t="s">
         <v>432</v>
       </c>
       <c r="C603">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D603">
-        <v>920.25</v>
+        <v>300</v>
       </c>
       <c r="E603" t="s">
         <v>2661</v>
@@ -18625,50 +18625,50 @@
     </row>
     <row r="604" spans="1:5">
       <c r="A604">
-        <v>23040</v>
+        <v>13250</v>
       </c>
       <c r="B604" t="s">
         <v>433</v>
       </c>
       <c r="C604">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D604">
-        <v>25</v>
+        <v>481.75</v>
       </c>
       <c r="E604" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="605" spans="1:5">
       <c r="A605">
-        <v>23040</v>
+        <v>8897</v>
       </c>
       <c r="B605" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C605">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D605">
-        <v>300</v>
+        <v>93.5</v>
       </c>
       <c r="E605" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="606" spans="1:5">
       <c r="A606">
-        <v>13250</v>
+        <v>8897</v>
       </c>
       <c r="B606" t="s">
         <v>434</v>
       </c>
       <c r="C606">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D606">
-        <v>481.75</v>
+        <v>1122</v>
       </c>
       <c r="E606" t="s">
         <v>2661</v>
@@ -18676,33 +18676,33 @@
     </row>
     <row r="607" spans="1:5">
       <c r="A607">
-        <v>8897</v>
+        <v>4326</v>
       </c>
       <c r="B607" t="s">
         <v>435</v>
       </c>
       <c r="C607">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D607">
-        <v>93.5</v>
+        <v>876</v>
       </c>
       <c r="E607" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="608" spans="1:5">
       <c r="A608">
-        <v>8897</v>
+        <v>202</v>
       </c>
       <c r="B608" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C608">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D608">
-        <v>1122</v>
+        <v>397</v>
       </c>
       <c r="E608" t="s">
         <v>2661</v>
@@ -18710,16 +18710,16 @@
     </row>
     <row r="609" spans="1:5">
       <c r="A609">
-        <v>4326</v>
+        <v>332</v>
       </c>
       <c r="B609" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C609">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D609">
-        <v>876</v>
+        <v>397</v>
       </c>
       <c r="E609" t="s">
         <v>2661</v>
@@ -18727,16 +18727,16 @@
     </row>
     <row r="610" spans="1:5">
       <c r="A610">
-        <v>202</v>
+        <v>13274</v>
       </c>
       <c r="B610" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C610">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D610">
-        <v>397</v>
+        <v>218.25</v>
       </c>
       <c r="E610" t="s">
         <v>2661</v>
@@ -18744,16 +18744,16 @@
     </row>
     <row r="611" spans="1:5">
       <c r="A611">
-        <v>332</v>
+        <v>563</v>
       </c>
       <c r="B611" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C611">
         <v>2</v>
       </c>
       <c r="D611">
-        <v>397</v>
+        <v>395.5</v>
       </c>
       <c r="E611" t="s">
         <v>2661</v>
@@ -18761,33 +18761,33 @@
     </row>
     <row r="612" spans="1:5">
       <c r="A612">
-        <v>13274</v>
+        <v>9828</v>
       </c>
       <c r="B612" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C612">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D612">
-        <v>218.25</v>
+        <v>331</v>
       </c>
       <c r="E612" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="613" spans="1:5">
       <c r="A613">
-        <v>563</v>
+        <v>9828</v>
       </c>
       <c r="B613" t="s">
         <v>440</v>
       </c>
       <c r="C613">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D613">
-        <v>395.5</v>
+        <v>2648</v>
       </c>
       <c r="E613" t="s">
         <v>2661</v>
@@ -18795,16 +18795,16 @@
     </row>
     <row r="614" spans="1:5">
       <c r="A614">
-        <v>9828</v>
+        <v>2308</v>
       </c>
       <c r="B614" t="s">
         <v>441</v>
       </c>
       <c r="C614">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D614">
-        <v>331</v>
+        <v>283.5</v>
       </c>
       <c r="E614" t="s">
         <v>2662</v>
@@ -18812,16 +18812,16 @@
     </row>
     <row r="615" spans="1:5">
       <c r="A615">
-        <v>9828</v>
+        <v>2308</v>
       </c>
       <c r="B615" t="s">
         <v>441</v>
       </c>
       <c r="C615">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D615">
-        <v>2648</v>
+        <v>850.5</v>
       </c>
       <c r="E615" t="s">
         <v>2661</v>
@@ -18829,41 +18829,41 @@
     </row>
     <row r="616" spans="1:5">
       <c r="A616">
-        <v>2308</v>
+        <v>13484</v>
       </c>
       <c r="B616" t="s">
         <v>442</v>
       </c>
       <c r="C616">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D616">
-        <v>283.5</v>
+        <v>148.75</v>
       </c>
       <c r="E616" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="617" spans="1:5">
       <c r="A617">
-        <v>2308</v>
+        <v>10406</v>
       </c>
       <c r="B617" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C617">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D617">
-        <v>850.5</v>
+        <v>16</v>
       </c>
       <c r="E617" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="618" spans="1:5">
       <c r="A618">
-        <v>13484</v>
+        <v>10406</v>
       </c>
       <c r="B618" t="s">
         <v>443</v>
@@ -18872,7 +18872,7 @@
         <v>1</v>
       </c>
       <c r="D618">
-        <v>148.75</v>
+        <v>192</v>
       </c>
       <c r="E618" t="s">
         <v>2661</v>
@@ -18880,16 +18880,16 @@
     </row>
     <row r="619" spans="1:5">
       <c r="A619">
-        <v>10406</v>
+        <v>6034</v>
       </c>
       <c r="B619" t="s">
         <v>444</v>
       </c>
       <c r="C619">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D619">
-        <v>16</v>
+        <v>43.25</v>
       </c>
       <c r="E619" t="s">
         <v>2662</v>
@@ -18897,7 +18897,7 @@
     </row>
     <row r="620" spans="1:5">
       <c r="A620">
-        <v>10406</v>
+        <v>6034</v>
       </c>
       <c r="B620" t="s">
         <v>444</v>
@@ -18906,7 +18906,7 @@
         <v>1</v>
       </c>
       <c r="D620">
-        <v>192</v>
+        <v>1038</v>
       </c>
       <c r="E620" t="s">
         <v>2661</v>
@@ -18914,16 +18914,16 @@
     </row>
     <row r="621" spans="1:5">
       <c r="A621">
-        <v>6034</v>
+        <v>22565</v>
       </c>
       <c r="B621" t="s">
         <v>445</v>
       </c>
       <c r="C621">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D621">
-        <v>43.25</v>
+        <v>48.75</v>
       </c>
       <c r="E621" t="s">
         <v>2662</v>
@@ -18931,7 +18931,7 @@
     </row>
     <row r="622" spans="1:5">
       <c r="A622">
-        <v>6034</v>
+        <v>22565</v>
       </c>
       <c r="B622" t="s">
         <v>445</v>
@@ -18940,7 +18940,7 @@
         <v>1</v>
       </c>
       <c r="D622">
-        <v>1038</v>
+        <v>585</v>
       </c>
       <c r="E622" t="s">
         <v>2661</v>
@@ -18948,33 +18948,33 @@
     </row>
     <row r="623" spans="1:5">
       <c r="A623">
-        <v>22565</v>
+        <v>12535</v>
       </c>
       <c r="B623" t="s">
         <v>446</v>
       </c>
       <c r="C623">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D623">
-        <v>48.75</v>
+        <v>405</v>
       </c>
       <c r="E623" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="624" spans="1:5">
       <c r="A624">
-        <v>22565</v>
+        <v>11965</v>
       </c>
       <c r="B624" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C624">
         <v>1</v>
       </c>
       <c r="D624">
-        <v>585</v>
+        <v>666.75</v>
       </c>
       <c r="E624" t="s">
         <v>2661</v>
@@ -18982,16 +18982,16 @@
     </row>
     <row r="625" spans="1:5">
       <c r="A625">
-        <v>12535</v>
+        <v>5128</v>
       </c>
       <c r="B625" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C625">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D625">
-        <v>405</v>
+        <v>241.75</v>
       </c>
       <c r="E625" t="s">
         <v>2661</v>
@@ -18999,16 +18999,16 @@
     </row>
     <row r="626" spans="1:5">
       <c r="A626">
-        <v>11965</v>
+        <v>20555</v>
       </c>
       <c r="B626" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C626">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D626">
-        <v>667.5</v>
+        <v>504.5</v>
       </c>
       <c r="E626" t="s">
         <v>2661</v>
@@ -19016,33 +19016,33 @@
     </row>
     <row r="627" spans="1:5">
       <c r="A627">
-        <v>5128</v>
+        <v>2990</v>
       </c>
       <c r="B627" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C627">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D627">
-        <v>241.75</v>
+        <v>197.5</v>
       </c>
       <c r="E627" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="628" spans="1:5">
       <c r="A628">
-        <v>20555</v>
+        <v>2990</v>
       </c>
       <c r="B628" t="s">
         <v>450</v>
       </c>
       <c r="C628">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D628">
-        <v>504.5</v>
+        <v>790</v>
       </c>
       <c r="E628" t="s">
         <v>2661</v>
@@ -19050,7 +19050,7 @@
     </row>
     <row r="629" spans="1:5">
       <c r="A629">
-        <v>2990</v>
+        <v>13033</v>
       </c>
       <c r="B629" t="s">
         <v>451</v>
@@ -19059,7 +19059,7 @@
         <v>3</v>
       </c>
       <c r="D629">
-        <v>197.5</v>
+        <v>47.75</v>
       </c>
       <c r="E629" t="s">
         <v>2662</v>
@@ -19067,7 +19067,7 @@
     </row>
     <row r="630" spans="1:5">
       <c r="A630">
-        <v>2990</v>
+        <v>13033</v>
       </c>
       <c r="B630" t="s">
         <v>451</v>
@@ -19076,7 +19076,7 @@
         <v>1</v>
       </c>
       <c r="D630">
-        <v>790</v>
+        <v>573</v>
       </c>
       <c r="E630" t="s">
         <v>2661</v>
@@ -19084,50 +19084,50 @@
     </row>
     <row r="631" spans="1:5">
       <c r="A631">
-        <v>13033</v>
+        <v>10181</v>
       </c>
       <c r="B631" t="s">
         <v>452</v>
       </c>
       <c r="C631">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D631">
-        <v>47.75</v>
+        <v>210.75</v>
       </c>
       <c r="E631" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="632" spans="1:5">
       <c r="A632">
-        <v>13033</v>
+        <v>3577</v>
       </c>
       <c r="B632" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C632">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D632">
-        <v>573</v>
+        <v>326.5</v>
       </c>
       <c r="E632" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="633" spans="1:5">
       <c r="A633">
-        <v>10181</v>
+        <v>3577</v>
       </c>
       <c r="B633" t="s">
         <v>453</v>
       </c>
       <c r="C633">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D633">
-        <v>210.75</v>
+        <v>979.5</v>
       </c>
       <c r="E633" t="s">
         <v>2661</v>
@@ -19135,50 +19135,50 @@
     </row>
     <row r="634" spans="1:5">
       <c r="A634">
-        <v>3577</v>
+        <v>5097</v>
       </c>
       <c r="B634" t="s">
         <v>454</v>
       </c>
       <c r="C634">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D634">
-        <v>326.5</v>
+        <v>175.25</v>
       </c>
       <c r="E634" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="635" spans="1:5">
       <c r="A635">
-        <v>3577</v>
+        <v>2418</v>
       </c>
       <c r="B635" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C635">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D635">
-        <v>979.5</v>
+        <v>263</v>
       </c>
       <c r="E635" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="636" spans="1:5">
       <c r="A636">
-        <v>5097</v>
+        <v>2418</v>
       </c>
       <c r="B636" t="s">
         <v>455</v>
       </c>
       <c r="C636">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D636">
-        <v>175.25</v>
+        <v>789</v>
       </c>
       <c r="E636" t="s">
         <v>2661</v>
@@ -19186,33 +19186,33 @@
     </row>
     <row r="637" spans="1:5">
       <c r="A637">
-        <v>2418</v>
+        <v>3334</v>
       </c>
       <c r="B637" t="s">
         <v>456</v>
       </c>
       <c r="C637">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D637">
-        <v>263</v>
+        <v>158.5</v>
       </c>
       <c r="E637" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="638" spans="1:5">
       <c r="A638">
-        <v>2418</v>
+        <v>7324</v>
       </c>
       <c r="B638" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C638">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D638">
-        <v>789</v>
+        <v>473.75</v>
       </c>
       <c r="E638" t="s">
         <v>2661</v>
@@ -19220,16 +19220,16 @@
     </row>
     <row r="639" spans="1:5">
       <c r="A639">
-        <v>3334</v>
+        <v>11304</v>
       </c>
       <c r="B639" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C639">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D639">
-        <v>158.5</v>
+        <v>314.75</v>
       </c>
       <c r="E639" t="s">
         <v>2661</v>
@@ -19237,16 +19237,16 @@
     </row>
     <row r="640" spans="1:5">
       <c r="A640">
-        <v>7324</v>
+        <v>13269</v>
       </c>
       <c r="B640" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C640">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D640">
-        <v>474.5</v>
+        <v>379.5</v>
       </c>
       <c r="E640" t="s">
         <v>2661</v>
@@ -19254,16 +19254,16 @@
     </row>
     <row r="641" spans="1:5">
       <c r="A641">
-        <v>11304</v>
+        <v>24257</v>
       </c>
       <c r="B641" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C641">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D641">
-        <v>314.75</v>
+        <v>204.25</v>
       </c>
       <c r="E641" t="s">
         <v>2661</v>
@@ -19271,16 +19271,16 @@
     </row>
     <row r="642" spans="1:5">
       <c r="A642">
-        <v>13269</v>
+        <v>5435</v>
       </c>
       <c r="B642" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C642">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D642">
-        <v>379.5</v>
+        <v>610</v>
       </c>
       <c r="E642" t="s">
         <v>2661</v>
@@ -19288,16 +19288,16 @@
     </row>
     <row r="643" spans="1:5">
       <c r="A643">
-        <v>24257</v>
+        <v>2775</v>
       </c>
       <c r="B643" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C643">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D643">
-        <v>204.25</v>
+        <v>182.25</v>
       </c>
       <c r="E643" t="s">
         <v>2661</v>
@@ -19305,33 +19305,33 @@
     </row>
     <row r="644" spans="1:5">
       <c r="A644">
-        <v>5435</v>
+        <v>2336</v>
       </c>
       <c r="B644" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C644">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D644">
-        <v>610</v>
+        <v>50</v>
       </c>
       <c r="E644" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="645" spans="1:5">
       <c r="A645">
-        <v>2775</v>
+        <v>2336</v>
       </c>
       <c r="B645" t="s">
         <v>463</v>
       </c>
       <c r="C645">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D645">
-        <v>182.25</v>
+        <v>1200</v>
       </c>
       <c r="E645" t="s">
         <v>2661</v>
@@ -19535,7 +19535,7 @@
         <v>1</v>
       </c>
       <c r="D657">
-        <v>144.5</v>
+        <v>144.75</v>
       </c>
       <c r="E657" t="s">
         <v>2661</v>
@@ -19875,7 +19875,7 @@
         <v>1</v>
       </c>
       <c r="D677">
-        <v>455</v>
+        <v>455.25</v>
       </c>
       <c r="E677" t="s">
         <v>2661</v>
@@ -20385,7 +20385,7 @@
         <v>1</v>
       </c>
       <c r="D707">
-        <v>77</v>
+        <v>77.25</v>
       </c>
       <c r="E707" t="s">
         <v>2661</v>
@@ -20742,7 +20742,7 @@
         <v>3</v>
       </c>
       <c r="D728">
-        <v>75.5</v>
+        <v>75.75</v>
       </c>
       <c r="E728" t="s">
         <v>2662</v>
@@ -20759,7 +20759,7 @@
         <v>1</v>
       </c>
       <c r="D729">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E729" t="s">
         <v>2661</v>
@@ -21303,7 +21303,7 @@
         <v>1</v>
       </c>
       <c r="D761">
-        <v>233.75</v>
+        <v>233.5</v>
       </c>
       <c r="E761" t="s">
         <v>2661</v>
@@ -23037,7 +23037,7 @@
         <v>1</v>
       </c>
       <c r="D863">
-        <v>849</v>
+        <v>848.5</v>
       </c>
       <c r="E863" t="s">
         <v>2661</v>
@@ -23955,7 +23955,7 @@
         <v>3</v>
       </c>
       <c r="D917">
-        <v>129.5</v>
+        <v>129.75</v>
       </c>
       <c r="E917" t="s">
         <v>2662</v>
@@ -23972,7 +23972,7 @@
         <v>1</v>
       </c>
       <c r="D918">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E918" t="s">
         <v>2661</v>
@@ -24108,7 +24108,7 @@
         <v>3</v>
       </c>
       <c r="D926">
-        <v>129.5</v>
+        <v>130</v>
       </c>
       <c r="E926" t="s">
         <v>2662</v>
@@ -24125,7 +24125,7 @@
         <v>1</v>
       </c>
       <c r="D927">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="E927" t="s">
         <v>2661</v>
@@ -26284,7 +26284,7 @@
         <v>1</v>
       </c>
       <c r="D1054">
-        <v>1050</v>
+        <v>1049.25</v>
       </c>
       <c r="E1054" t="s">
         <v>2661</v>
@@ -27372,7 +27372,7 @@
         <v>1</v>
       </c>
       <c r="D1118">
-        <v>168.75</v>
+        <v>169.25</v>
       </c>
       <c r="E1118" t="s">
         <v>2661</v>
@@ -29191,7 +29191,7 @@
         <v>1</v>
       </c>
       <c r="D1225">
-        <v>668.5</v>
+        <v>668.25</v>
       </c>
       <c r="E1225" t="s">
         <v>2661</v>
@@ -29446,7 +29446,7 @@
         <v>1</v>
       </c>
       <c r="D1240">
-        <v>166.5</v>
+        <v>166.75</v>
       </c>
       <c r="E1240" t="s">
         <v>2661</v>
@@ -29667,7 +29667,7 @@
         <v>10</v>
       </c>
       <c r="D1253">
-        <v>13.75</v>
+        <v>14</v>
       </c>
       <c r="E1253" t="s">
         <v>2662</v>
@@ -29684,7 +29684,7 @@
         <v>15</v>
       </c>
       <c r="D1254">
-        <v>82.5</v>
+        <v>84</v>
       </c>
       <c r="E1254" t="s">
         <v>2661</v>
@@ -29701,7 +29701,7 @@
         <v>16</v>
       </c>
       <c r="D1255">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E1255" t="s">
         <v>2661</v>
@@ -29718,7 +29718,7 @@
         <v>1</v>
       </c>
       <c r="D1256">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E1256" t="s">
         <v>2661</v>
@@ -29735,7 +29735,7 @@
         <v>3</v>
       </c>
       <c r="D1257">
-        <v>106.75</v>
+        <v>107.25</v>
       </c>
       <c r="E1257" t="s">
         <v>2662</v>
@@ -29752,7 +29752,7 @@
         <v>1</v>
       </c>
       <c r="D1258">
-        <v>640.5</v>
+        <v>643.5</v>
       </c>
       <c r="E1258" t="s">
         <v>2661</v>
@@ -29786,7 +29786,7 @@
         <v>1</v>
       </c>
       <c r="D1260">
-        <v>77</v>
+        <v>77.25</v>
       </c>
       <c r="E1260" t="s">
         <v>2661</v>
@@ -29973,7 +29973,7 @@
         <v>1</v>
       </c>
       <c r="D1271">
-        <v>613.25</v>
+        <v>612.5</v>
       </c>
       <c r="E1271" t="s">
         <v>2661</v>
@@ -30449,7 +30449,7 @@
         <v>1</v>
       </c>
       <c r="D1299">
-        <v>596.5</v>
+        <v>596.25</v>
       </c>
       <c r="E1299" t="s">
         <v>2661</v>
@@ -30500,7 +30500,7 @@
         <v>1</v>
       </c>
       <c r="D1302">
-        <v>575.5</v>
+        <v>574.25</v>
       </c>
       <c r="E1302" t="s">
         <v>2661</v>
@@ -31078,7 +31078,7 @@
         <v>29</v>
       </c>
       <c r="D1336">
-        <v>281.5</v>
+        <v>281.75</v>
       </c>
       <c r="E1336" t="s">
         <v>2661</v>
@@ -31707,7 +31707,7 @@
         <v>3</v>
       </c>
       <c r="D1373">
-        <v>43.75</v>
+        <v>43.5</v>
       </c>
       <c r="E1373" t="s">
         <v>2662</v>
@@ -31724,7 +31724,7 @@
         <v>1</v>
       </c>
       <c r="D1374">
-        <v>262.5</v>
+        <v>261</v>
       </c>
       <c r="E1374" t="s">
         <v>2661</v>
@@ -34733,7 +34733,7 @@
         <v>7</v>
       </c>
       <c r="D1551">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="E1551" t="s">
         <v>2662</v>
@@ -34750,7 +34750,7 @@
         <v>15</v>
       </c>
       <c r="D1552">
-        <v>51.25</v>
+        <v>53.75</v>
       </c>
       <c r="E1552" t="s">
         <v>2661</v>
@@ -34767,7 +34767,7 @@
         <v>16</v>
       </c>
       <c r="D1553">
-        <v>102.5</v>
+        <v>107.5</v>
       </c>
       <c r="E1553" t="s">
         <v>2661</v>
@@ -34784,7 +34784,7 @@
         <v>1</v>
       </c>
       <c r="D1554">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E1554" t="s">
         <v>2661</v>
@@ -35260,7 +35260,7 @@
         <v>7</v>
       </c>
       <c r="D1582">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="E1582" t="s">
         <v>2662</v>
@@ -35277,7 +35277,7 @@
         <v>15</v>
       </c>
       <c r="D1583">
-        <v>48.75</v>
+        <v>50</v>
       </c>
       <c r="E1583" t="s">
         <v>2661</v>
@@ -35294,7 +35294,7 @@
         <v>16</v>
       </c>
       <c r="D1584">
-        <v>97.5</v>
+        <v>100</v>
       </c>
       <c r="E1584" t="s">
         <v>2661</v>
@@ -35311,7 +35311,7 @@
         <v>1</v>
       </c>
       <c r="D1585">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E1585" t="s">
         <v>2661</v>
@@ -37011,7 +37011,7 @@
         <v>1</v>
       </c>
       <c r="D1685">
-        <v>87.75</v>
+        <v>88.25</v>
       </c>
       <c r="E1685" t="s">
         <v>2661</v>
@@ -37249,7 +37249,7 @@
         <v>1</v>
       </c>
       <c r="D1699">
-        <v>458.7994888927612</v>
+        <v>458.4630760059899</v>
       </c>
       <c r="E1699" t="s">
         <v>2661</v>
@@ -40921,7 +40921,7 @@
         <v>1</v>
       </c>
       <c r="D1915">
-        <v>442.5</v>
+        <v>442.25</v>
       </c>
       <c r="E1915" t="s">
         <v>2661</v>
@@ -40938,7 +40938,7 @@
         <v>1</v>
       </c>
       <c r="D1916">
-        <v>415</v>
+        <v>414.5</v>
       </c>
       <c r="E1916" t="s">
         <v>2661</v>
@@ -44899,7 +44899,7 @@
         <v>10</v>
       </c>
       <c r="D2149">
-        <v>987.75</v>
+        <v>986.5</v>
       </c>
       <c r="E2149" t="s">
         <v>2661</v>
@@ -45579,7 +45579,7 @@
         <v>1</v>
       </c>
       <c r="D2189">
-        <v>709</v>
+        <v>708.75</v>
       </c>
       <c r="E2189" t="s">
         <v>2661</v>
@@ -45647,7 +45647,7 @@
         <v>12</v>
       </c>
       <c r="D2193">
-        <v>1002.5</v>
+        <v>1000.75</v>
       </c>
       <c r="E2193" t="s">
         <v>2661</v>
@@ -46004,7 +46004,7 @@
         <v>1</v>
       </c>
       <c r="D2214">
-        <v>672.105999834775</v>
+        <v>672.1218900059507</v>
       </c>
       <c r="E2214" t="s">
         <v>2661</v>
@@ -47602,7 +47602,7 @@
         <v>3</v>
       </c>
       <c r="D2308">
-        <v>32.70668691510573</v>
+        <v>32.70662406581967</v>
       </c>
       <c r="E2308" t="s">
         <v>2662</v>
@@ -47619,7 +47619,7 @@
         <v>1</v>
       </c>
       <c r="D2309">
-        <v>784.9604859625376</v>
+        <v>784.9589775796721</v>
       </c>
       <c r="E2309" t="s">
         <v>2661</v>
@@ -49829,7 +49829,7 @@
         <v>1</v>
       </c>
       <c r="D2439">
-        <v>601.7742279385867</v>
+        <v>602.4193069195056</v>
       </c>
       <c r="E2439" t="s">
         <v>2661</v>
@@ -50985,7 +50985,7 @@
         <v>25</v>
       </c>
       <c r="D2507">
-        <v>399.75</v>
+        <v>400</v>
       </c>
       <c r="E2507" t="s">
         <v>2662</v>
@@ -51002,7 +51002,7 @@
         <v>2</v>
       </c>
       <c r="D2508">
-        <v>799.5</v>
+        <v>800</v>
       </c>
       <c r="E2508" t="s">
         <v>2661</v>
@@ -51189,7 +51189,7 @@
         <v>1</v>
       </c>
       <c r="D2519">
-        <v>169.1163884930393</v>
+        <v>169.1480879540795</v>
       </c>
       <c r="E2519" t="s">
         <v>2661</v>
@@ -51223,7 +51223,7 @@
         <v>1</v>
       </c>
       <c r="D2521">
-        <v>169.5617012823882</v>
+        <v>169.565821803363</v>
       </c>
       <c r="E2521" t="s">
         <v>2661</v>
@@ -52515,7 +52515,7 @@
         <v>1</v>
       </c>
       <c r="D2597">
-        <v>672.6281293895335</v>
+        <v>672.6406959120317</v>
       </c>
       <c r="E2597" t="s">
         <v>2661</v>
@@ -57394,7 +57394,7 @@
         <v>3</v>
       </c>
       <c r="D2884">
-        <v>144.2079482425261</v>
+        <v>144.2484800139884</v>
       </c>
       <c r="E2884" t="s">
         <v>2662</v>
@@ -57411,7 +57411,7 @@
         <v>1</v>
       </c>
       <c r="D2885">
-        <v>865.2476894551564</v>
+        <v>865.4908800839304</v>
       </c>
       <c r="E2885" t="s">
         <v>2661</v>
@@ -59502,7 +59502,7 @@
         <v>3</v>
       </c>
       <c r="D3008">
-        <v>47.62011750925099</v>
+        <v>47.62011753175526</v>
       </c>
       <c r="E3008" t="s">
         <v>2662</v>
@@ -59519,7 +59519,7 @@
         <v>1</v>
       </c>
       <c r="D3009">
-        <v>571.4414101110119</v>
+        <v>571.4414103810631</v>
       </c>
       <c r="E3009" t="s">
         <v>2661</v>
@@ -61967,7 +61967,7 @@
         <v>1</v>
       </c>
       <c r="D3153">
-        <v>875.75</v>
+        <v>871</v>
       </c>
       <c r="E3153" t="s">
         <v>2661</v>
@@ -69923,7 +69923,7 @@
         <v>1</v>
       </c>
       <c r="D3621">
-        <v>849</v>
+        <v>848.5</v>
       </c>
       <c r="E3621" t="s">
         <v>2661</v>
@@ -70042,7 +70042,7 @@
         <v>2</v>
       </c>
       <c r="D3628">
-        <v>114.6550267930171</v>
+        <v>114.655068600075</v>
       </c>
       <c r="E3628" t="s">
         <v>2661</v>
